--- a/Problem_1/Book1.xlsx
+++ b/Problem_1/Book1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="31635" windowHeight="11325"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="31635" windowHeight="11325" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Before Optimization" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="410">
   <si>
     <t>uf20-01.cnf</t>
   </si>
@@ -1240,6 +1240,12 @@
   </si>
   <si>
     <t>Time</t>
+  </si>
+  <si>
+    <t>AVERAGE</t>
+  </si>
+  <si>
+    <t>MEDIAN</t>
   </si>
 </sst>
 </file>
@@ -1292,13 +1298,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1600,14 +1609,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:T104"/>
+  <dimension ref="A1:T105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C110" sqref="C110"/>
+    <sheetView topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="E104" sqref="E104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="11.140625" customWidth="1"/>
@@ -1627,33 +1637,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
       <c r="F1" s="2"/>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
       <c r="P1" s="2"/>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
     </row>
     <row r="2" spans="2:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
@@ -6408,7 +6418,7 @@
         <v>2.5001475811004599</v>
       </c>
     </row>
-    <row r="97" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>94</v>
       </c>
@@ -6458,7 +6468,7 @@
         <v>0.78659081459045399</v>
       </c>
     </row>
-    <row r="98" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>95</v>
       </c>
@@ -6508,7 +6518,7 @@
         <v>0.42011642456054599</v>
       </c>
     </row>
-    <row r="99" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
         <v>96</v>
       </c>
@@ -6558,7 +6568,7 @@
         <v>1.8689694404602</v>
       </c>
     </row>
-    <row r="100" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>97</v>
       </c>
@@ -6608,7 +6618,7 @@
         <v>23.833365440368599</v>
       </c>
     </row>
-    <row r="101" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
         <v>98</v>
       </c>
@@ -6658,7 +6668,7 @@
         <v>12.119722366333001</v>
       </c>
     </row>
-    <row r="102" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>99</v>
       </c>
@@ -6708,13 +6718,16 @@
         <v>2.2464725971221902</v>
       </c>
     </row>
-    <row r="104" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>408</v>
+      </c>
       <c r="C104">
-        <f t="shared" ref="C104:T104" si="0">AVERAGE(C3:C102)</f>
+        <f>AVERAGE(C3:C102)</f>
         <v>1.27</v>
       </c>
       <c r="D104">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D104:T104" si="0">AVERAGE(D3:D102)</f>
         <v>1129.07</v>
       </c>
       <c r="E104">
@@ -6756,6 +6769,59 @@
       <c r="T104">
         <f t="shared" si="0"/>
         <v>48.71862391233438</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>409</v>
+      </c>
+      <c r="C105">
+        <f>MEDIAN(C3:C102)</f>
+        <v>1</v>
+      </c>
+      <c r="D105">
+        <f t="shared" ref="D105:T105" si="1">MEDIAN(D3:D102)</f>
+        <v>927.5</v>
+      </c>
+      <c r="E105">
+        <f t="shared" si="1"/>
+        <v>1.3034820556640601E-2</v>
+      </c>
+      <c r="H105">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I105">
+        <f t="shared" si="1"/>
+        <v>8365.5</v>
+      </c>
+      <c r="J105">
+        <f t="shared" si="1"/>
+        <v>0.25116777420043901</v>
+      </c>
+      <c r="M105">
+        <f t="shared" si="1"/>
+        <v>8.5</v>
+      </c>
+      <c r="N105">
+        <f t="shared" si="1"/>
+        <v>40252</v>
+      </c>
+      <c r="O105">
+        <f t="shared" si="1"/>
+        <v>1.799785017967215</v>
+      </c>
+      <c r="R105">
+        <f t="shared" si="1"/>
+        <v>24.5</v>
+      </c>
+      <c r="S105">
+        <f t="shared" si="1"/>
+        <v>174084.5</v>
+      </c>
+      <c r="T105">
+        <f t="shared" si="1"/>
+        <v>10.068769931793209</v>
       </c>
     </row>
   </sheetData>
@@ -6772,62 +6838,66 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:T104"/>
+  <dimension ref="A1:X105"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="B113" sqref="B112:B113"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="Y5" sqref="Y5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
-    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" customWidth="1"/>
-    <col min="17" max="17" width="16.85546875" customWidth="1"/>
-    <col min="18" max="18" width="15.42578125" customWidth="1"/>
-    <col min="19" max="19" width="12.42578125" customWidth="1"/>
-    <col min="20" max="20" width="13.85546875" customWidth="1"/>
+    <col min="5" max="6" width="11.42578125" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" customWidth="1"/>
+    <col min="11" max="12" width="12.5703125" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" customWidth="1"/>
+    <col min="16" max="16" width="10.5703125" customWidth="1"/>
+    <col min="17" max="18" width="14.28515625" customWidth="1"/>
+    <col min="20" max="20" width="16.85546875" customWidth="1"/>
+    <col min="21" max="21" width="15.42578125" customWidth="1"/>
+    <col min="22" max="22" width="12.42578125" customWidth="1"/>
+    <col min="23" max="23" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B1" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="1" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="1" t="s">
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="1" t="s">
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-    </row>
-    <row r="2" spans="2:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+    </row>
+    <row r="2" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>404</v>
       </c>
@@ -6840,47 +6910,50 @@
       <c r="E2" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="3" t="s">
+      <c r="F2" s="3"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="3"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="3" t="s">
+      <c r="R2" s="3"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -6893,44 +6966,52 @@
       <c r="E3">
         <v>7.0188045501708898E-3</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>101</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>5</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>13921</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>0.24565315246582001</v>
       </c>
-      <c r="L3" t="s">
+      <c r="N3" t="s">
         <v>202</v>
       </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-      <c r="N3">
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
         <v>5982</v>
       </c>
-      <c r="O3">
+      <c r="Q3">
         <v>0.151402473449707</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3">
+        <f>IF(VALUE(Q3)&lt;10,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T3" t="s">
         <v>303</v>
       </c>
-      <c r="R3">
+      <c r="U3">
         <v>32</v>
       </c>
-      <c r="S3">
+      <c r="V3">
         <v>234402</v>
       </c>
-      <c r="T3">
+      <c r="W3">
         <v>7.6774115562438903</v>
       </c>
-    </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="X3">
+        <f>IF(VALUE(W3)&lt;10,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -6943,44 +7024,52 @@
       <c r="E4">
         <v>8.5227489471435495E-3</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>102</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>2</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>6680</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>0.11731219291687001</v>
       </c>
-      <c r="L4" t="s">
+      <c r="N4" t="s">
         <v>203</v>
       </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="N4">
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
         <v>5558</v>
       </c>
-      <c r="O4">
+      <c r="Q4">
         <v>0.14388394355773901</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4">
+        <f t="shared" ref="R4:R67" si="0">IF(VALUE(Q4)&lt;10,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T4" t="s">
         <v>304</v>
       </c>
-      <c r="R4">
+      <c r="U4">
         <v>32</v>
       </c>
-      <c r="S4">
+      <c r="V4">
         <v>223721</v>
       </c>
-      <c r="T4">
+      <c r="W4">
         <v>7.2898814678192103</v>
       </c>
-    </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="X4">
+        <f t="shared" ref="X4:X67" si="1">IF(VALUE(W4)&lt;10,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -6993,44 +7082,52 @@
       <c r="E5">
         <v>7.5197219848632804E-3</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>103</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>14</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>39786</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>0.68231391906738204</v>
       </c>
-      <c r="L5" t="s">
+      <c r="N5" t="s">
         <v>204</v>
       </c>
-      <c r="M5">
+      <c r="O5">
         <v>3</v>
       </c>
-      <c r="N5">
+      <c r="P5">
         <v>15344</v>
       </c>
-      <c r="O5">
+      <c r="Q5">
         <v>0.38853144645690901</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T5" t="s">
         <v>305</v>
       </c>
-      <c r="R5">
+      <c r="U5">
         <v>2</v>
       </c>
-      <c r="S5">
+      <c r="V5">
         <v>14965</v>
       </c>
-      <c r="T5">
+      <c r="W5">
         <v>0.49080491065978998</v>
       </c>
-    </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="X5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -7043,44 +7140,52 @@
       <c r="E6">
         <v>9.0239048004150304E-3</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>104</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>3</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>8885</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>0.15641593933105399</v>
       </c>
-      <c r="L6" t="s">
+      <c r="N6" t="s">
         <v>205</v>
       </c>
-      <c r="M6">
+      <c r="O6">
         <v>34</v>
       </c>
-      <c r="N6">
+      <c r="P6">
         <v>166059</v>
       </c>
-      <c r="O6">
+      <c r="Q6">
         <v>4.1585562229156396</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T6" t="s">
         <v>306</v>
       </c>
-      <c r="R6">
+      <c r="U6">
         <v>7</v>
       </c>
-      <c r="S6">
+      <c r="V6">
         <v>50308</v>
       </c>
-      <c r="T6">
+      <c r="W6">
         <v>1.6273264884948699</v>
       </c>
-    </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="X6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>4</v>
       </c>
@@ -7093,44 +7198,52 @@
       <c r="E7">
         <v>9.0241432189941406E-3</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>105</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>3</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>8847</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>0.150901079177856</v>
       </c>
-      <c r="L7" t="s">
+      <c r="N7" t="s">
         <v>206</v>
       </c>
-      <c r="M7">
+      <c r="O7">
         <v>57</v>
       </c>
-      <c r="N7">
+      <c r="P7">
         <v>274332</v>
       </c>
-      <c r="O7">
+      <c r="Q7">
         <v>6.9319295883178702</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T7" t="s">
         <v>307</v>
       </c>
-      <c r="R7">
+      <c r="U7">
         <v>11</v>
       </c>
-      <c r="S7">
+      <c r="V7">
         <v>77672</v>
       </c>
-      <c r="T7">
+      <c r="W7">
         <v>2.5613095760345401</v>
       </c>
-    </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="X7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>5</v>
       </c>
@@ -7143,44 +7256,52 @@
       <c r="E8">
         <v>2.2058725357055602E-2</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>106</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>3</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>9042</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>0.15641593933105399</v>
       </c>
-      <c r="L8" t="s">
+      <c r="N8" t="s">
         <v>207</v>
       </c>
-      <c r="M8">
+      <c r="O8">
         <v>3</v>
       </c>
-      <c r="N8">
+      <c r="P8">
         <v>16537</v>
       </c>
-      <c r="O8">
+      <c r="Q8">
         <v>0.42011713981628401</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T8" t="s">
         <v>308</v>
       </c>
-      <c r="R8">
+      <c r="U8">
         <v>151</v>
       </c>
-      <c r="S8">
+      <c r="V8">
         <v>1103332</v>
       </c>
-      <c r="T8">
+      <c r="W8">
         <v>36.037314653396599</v>
       </c>
-    </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="X8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>6</v>
       </c>
@@ -7193,44 +7314,52 @@
       <c r="E9">
         <v>8.0213546752929601E-3</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>107</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>6</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>15560</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>0.26771450042724598</v>
       </c>
-      <c r="L9" t="s">
+      <c r="N9" t="s">
         <v>208</v>
       </c>
-      <c r="M9">
-        <v>1</v>
-      </c>
-      <c r="N9">
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
         <v>4903</v>
       </c>
-      <c r="O9">
+      <c r="Q9">
         <v>0.123327732086181</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T9" t="s">
         <v>309</v>
       </c>
-      <c r="R9">
+      <c r="U9">
         <v>4</v>
       </c>
-      <c r="S9">
+      <c r="V9">
         <v>27252</v>
       </c>
-      <c r="T9">
+      <c r="W9">
         <v>0.90039396286010698</v>
       </c>
-    </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="X9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>7</v>
       </c>
@@ -7243,44 +7372,52 @@
       <c r="E10">
         <v>8.5227489471435495E-3</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>108</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>4</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>11908</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>0.20604753494262601</v>
       </c>
-      <c r="L10" t="s">
+      <c r="N10" t="s">
         <v>209</v>
       </c>
-      <c r="M10">
+      <c r="O10">
         <v>7</v>
       </c>
-      <c r="N10">
+      <c r="P10">
         <v>33317</v>
       </c>
-      <c r="O10">
+      <c r="Q10">
         <v>0.83672475814819303</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T10" t="s">
         <v>310</v>
       </c>
-      <c r="R10">
+      <c r="U10">
         <v>39</v>
       </c>
-      <c r="S10">
+      <c r="V10">
         <v>280669</v>
       </c>
-      <c r="T10">
+      <c r="W10">
         <v>9.1864264011383003</v>
       </c>
-    </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="X10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>8</v>
       </c>
@@ -7293,44 +7430,52 @@
       <c r="E11">
         <v>2.3562431335449201E-2</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>109</v>
       </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
       <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
         <v>2443</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>4.16107177734375E-2</v>
       </c>
-      <c r="L11" t="s">
+      <c r="N11" t="s">
         <v>210</v>
       </c>
-      <c r="M11">
+      <c r="O11">
         <v>19</v>
       </c>
-      <c r="N11">
+      <c r="P11">
         <v>93608</v>
       </c>
-      <c r="O11">
+      <c r="Q11">
         <v>2.36578965187072</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T11" t="s">
         <v>311</v>
       </c>
-      <c r="R11">
+      <c r="U11">
         <v>2</v>
       </c>
-      <c r="S11">
+      <c r="V11">
         <v>14165</v>
       </c>
-      <c r="T11">
+      <c r="W11">
         <v>0.45821809768676702</v>
       </c>
-    </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="X11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>9</v>
       </c>
@@ -7343,44 +7488,52 @@
       <c r="E12">
         <v>3.20856571197509E-2</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>110</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>26</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>74822</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>1.3029642105102499</v>
       </c>
-      <c r="L12" t="s">
+      <c r="N12" t="s">
         <v>211</v>
       </c>
-      <c r="M12">
+      <c r="O12">
         <v>9</v>
       </c>
-      <c r="N12">
+      <c r="P12">
         <v>45049</v>
       </c>
-      <c r="O12">
+      <c r="Q12">
         <v>1.1535673141479399</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T12" t="s">
         <v>312</v>
       </c>
-      <c r="R12">
+      <c r="U12">
         <v>18</v>
       </c>
-      <c r="S12">
+      <c r="V12">
         <v>132422</v>
       </c>
-      <c r="T12">
+      <c r="W12">
         <v>4.3686146736145002</v>
       </c>
-    </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="X12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -7393,44 +7546,52 @@
       <c r="E13">
         <v>1.0026693344116201E-2</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>111</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>3</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>8598</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>0.15390920639038</v>
       </c>
-      <c r="L13" t="s">
+      <c r="N13" t="s">
         <v>212</v>
       </c>
-      <c r="M13">
+      <c r="O13">
         <v>4</v>
       </c>
-      <c r="N13">
+      <c r="P13">
         <v>20896</v>
       </c>
-      <c r="O13">
+      <c r="Q13">
         <v>0.52940750122070301</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T13" t="s">
         <v>313</v>
       </c>
-      <c r="R13">
+      <c r="U13">
         <v>267</v>
       </c>
-      <c r="S13">
+      <c r="V13">
         <v>1916558</v>
       </c>
-      <c r="T13">
+      <c r="W13">
         <v>62.023901700973497</v>
       </c>
-    </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="X13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>11</v>
       </c>
@@ -7443,44 +7604,52 @@
       <c r="E14">
         <v>7.5197219848632804E-3</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>112</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>2</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>6455</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>0.117311954498291</v>
       </c>
-      <c r="L14" t="s">
+      <c r="N14" t="s">
         <v>213</v>
       </c>
-      <c r="M14">
+      <c r="O14">
         <v>75</v>
       </c>
-      <c r="N14">
+      <c r="P14">
         <v>386520</v>
       </c>
-      <c r="O14">
+      <c r="Q14">
         <v>9.9043323993682808</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T14" t="s">
         <v>314</v>
       </c>
-      <c r="R14">
+      <c r="U14">
         <v>59</v>
       </c>
-      <c r="S14">
+      <c r="V14">
         <v>419441</v>
       </c>
-      <c r="T14">
+      <c r="W14">
         <v>13.7360198497772</v>
       </c>
-    </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="X14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>12</v>
       </c>
@@ -7493,44 +7662,52 @@
       <c r="E15">
         <v>8.5225105285644497E-3</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>113</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>2</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>5739</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>0.103775978088378</v>
       </c>
-      <c r="L15" t="s">
+      <c r="N15" t="s">
         <v>214</v>
       </c>
-      <c r="M15">
+      <c r="O15">
         <v>2</v>
       </c>
-      <c r="N15">
+      <c r="P15">
         <v>10257</v>
       </c>
-      <c r="O15">
+      <c r="Q15">
         <v>0.25818634033203097</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T15" t="s">
         <v>315</v>
       </c>
-      <c r="R15">
+      <c r="U15">
         <v>104</v>
       </c>
-      <c r="S15">
+      <c r="V15">
         <v>750129</v>
       </c>
-      <c r="T15">
+      <c r="W15">
         <v>24.4790823459625</v>
       </c>
-    </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="X15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>13</v>
       </c>
@@ -7543,44 +7720,52 @@
       <c r="E16">
         <v>8.0215930938720703E-3</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>114</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>10</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>30568</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>0.52990865707397405</v>
       </c>
-      <c r="L16" t="s">
+      <c r="N16" t="s">
         <v>215</v>
       </c>
-      <c r="M16">
+      <c r="O16">
         <v>15</v>
       </c>
-      <c r="N16">
+      <c r="P16">
         <v>75103</v>
       </c>
-      <c r="O16">
+      <c r="Q16">
         <v>1.8875184059143</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T16" t="s">
         <v>316</v>
       </c>
-      <c r="R16">
+      <c r="U16">
         <v>8</v>
       </c>
-      <c r="S16">
+      <c r="V16">
         <v>61868</v>
       </c>
-      <c r="T16">
+      <c r="W16">
         <v>2.0253849029540998</v>
       </c>
-    </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="X16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>14</v>
       </c>
@@ -7593,44 +7778,52 @@
       <c r="E17">
         <v>8.0211162567138602E-3</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>115</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>4</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>11391</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>0.199029445648193</v>
       </c>
-      <c r="L17" t="s">
+      <c r="N17" t="s">
         <v>216</v>
       </c>
-      <c r="M17">
+      <c r="O17">
         <v>2</v>
       </c>
-      <c r="N17">
+      <c r="P17">
         <v>9807</v>
       </c>
-      <c r="O17">
+      <c r="Q17">
         <v>0.24866104125976499</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="R17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T17" t="s">
         <v>317</v>
       </c>
-      <c r="R17">
+      <c r="U17">
         <v>53</v>
       </c>
-      <c r="S17">
+      <c r="V17">
         <v>373560</v>
       </c>
-      <c r="T17">
+      <c r="W17">
         <v>12.225002288818301</v>
       </c>
-    </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="X17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>15</v>
       </c>
@@ -7643,44 +7836,52 @@
       <c r="E18">
         <v>6.5174102783203099E-3</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>116</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>19</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>52828</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>0.91543340682983398</v>
       </c>
-      <c r="L18" t="s">
+      <c r="N18" t="s">
         <v>217</v>
       </c>
-      <c r="M18">
+      <c r="O18">
         <v>2</v>
       </c>
-      <c r="N18">
+      <c r="P18">
         <v>9187</v>
       </c>
-      <c r="O18">
+      <c r="Q18">
         <v>0.231114387512207</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="R18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T18" t="s">
         <v>318</v>
       </c>
-      <c r="R18">
+      <c r="U18">
         <v>7</v>
       </c>
-      <c r="S18">
+      <c r="V18">
         <v>51773</v>
       </c>
-      <c r="T18">
+      <c r="W18">
         <v>1.69701170921325</v>
       </c>
-    </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="X18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>16</v>
       </c>
@@ -7693,44 +7894,52 @@
       <c r="E19">
         <v>8.5225105285644497E-3</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>117</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>9</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>24661</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>0.429141044616699</v>
       </c>
-      <c r="L19" t="s">
+      <c r="N19" t="s">
         <v>218</v>
       </c>
-      <c r="M19">
-        <v>1</v>
-      </c>
-      <c r="N19">
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19">
         <v>4871</v>
       </c>
-      <c r="O19">
+      <c r="Q19">
         <v>0.131349086761474</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="R19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T19" t="s">
         <v>319</v>
       </c>
-      <c r="R19">
+      <c r="U19">
         <v>17</v>
       </c>
-      <c r="S19">
+      <c r="V19">
         <v>122397</v>
       </c>
-      <c r="T19">
+      <c r="W19">
         <v>3.9966254234313898</v>
       </c>
-    </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="X19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>17</v>
       </c>
@@ -7743,44 +7952,52 @@
       <c r="E20">
         <v>8.5227489471435495E-3</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>118</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>4</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>11366</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>0.195519924163818</v>
       </c>
-      <c r="L20" t="s">
+      <c r="N20" t="s">
         <v>219</v>
       </c>
-      <c r="M20">
+      <c r="O20">
         <v>25</v>
       </c>
-      <c r="N20">
+      <c r="P20">
         <v>122644</v>
       </c>
-      <c r="O20">
+      <c r="Q20">
         <v>3.1047549247741699</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="R20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T20" t="s">
         <v>320</v>
       </c>
-      <c r="R20">
+      <c r="U20">
         <v>534</v>
       </c>
-      <c r="S20">
+      <c r="V20">
         <v>3770915</v>
       </c>
-      <c r="T20">
+      <c r="W20">
         <v>123.459745168685</v>
       </c>
-    </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="X20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>18</v>
       </c>
@@ -7793,44 +8010,52 @@
       <c r="E21">
         <v>8.0213546752929601E-3</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>119</v>
       </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
       <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
         <v>3400</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>5.9157371520995997E-2</v>
       </c>
-      <c r="L21" t="s">
+      <c r="N21" t="s">
         <v>220</v>
       </c>
-      <c r="M21">
-        <v>1</v>
-      </c>
-      <c r="N21">
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21">
         <v>5631</v>
       </c>
-      <c r="O21">
+      <c r="Q21">
         <v>0.14388322830200101</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="R21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T21" t="s">
         <v>321</v>
       </c>
-      <c r="R21">
+      <c r="U21">
         <v>58</v>
       </c>
-      <c r="S21">
+      <c r="V21">
         <v>428046</v>
       </c>
-      <c r="T21">
+      <c r="W21">
         <v>13.8453102111816</v>
       </c>
-    </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="X21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>19</v>
       </c>
@@ -7843,44 +8068,52 @@
       <c r="E22">
         <v>8.5225105285644497E-3</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>120</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>2</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>5811</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>0.101770639419555</v>
       </c>
-      <c r="L22" t="s">
+      <c r="N22" t="s">
         <v>221</v>
       </c>
-      <c r="M22">
+      <c r="O22">
         <v>5</v>
       </c>
-      <c r="N22">
+      <c r="P22">
         <v>25254</v>
       </c>
-      <c r="O22">
+      <c r="Q22">
         <v>0.64872360229492099</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="R22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T22" t="s">
         <v>322</v>
       </c>
-      <c r="R22">
+      <c r="U22">
         <v>15</v>
       </c>
-      <c r="S22">
+      <c r="V22">
         <v>106228</v>
       </c>
-      <c r="T22">
+      <c r="W22">
         <v>3.4827594757079998</v>
       </c>
-    </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="X22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>20</v>
       </c>
@@ -7893,44 +8126,52 @@
       <c r="E23">
         <v>8.0215930938720703E-3</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>121</v>
       </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
       <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
         <v>3309</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>5.8655738830566399E-2</v>
       </c>
-      <c r="L23" t="s">
+      <c r="N23" t="s">
         <v>222</v>
       </c>
-      <c r="M23">
+      <c r="O23">
         <v>3</v>
       </c>
-      <c r="N23">
+      <c r="P23">
         <v>15101</v>
       </c>
-      <c r="O23">
+      <c r="Q23">
         <v>0.38051176071166898</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="R23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T23" t="s">
         <v>323</v>
       </c>
-      <c r="R23">
+      <c r="U23">
         <v>4</v>
       </c>
-      <c r="S23">
+      <c r="V23">
         <v>31442</v>
       </c>
-      <c r="T23">
+      <c r="W23">
         <v>1.0272307395935001</v>
       </c>
-    </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="X23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>21</v>
       </c>
@@ -7943,44 +8184,52 @@
       <c r="E24">
         <v>1.6042470932006801E-2</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>122</v>
       </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
       <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
         <v>2651</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>4.5621395111083901E-2</v>
       </c>
-      <c r="L24" t="s">
+      <c r="N24" t="s">
         <v>223</v>
       </c>
-      <c r="M24">
+      <c r="O24">
         <v>112</v>
       </c>
-      <c r="N24">
+      <c r="P24">
         <v>509224</v>
       </c>
-      <c r="O24">
+      <c r="Q24">
         <v>12.889268636703401</v>
       </c>
-      <c r="Q24" t="s">
+      <c r="R24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T24" t="s">
         <v>324</v>
       </c>
-      <c r="R24">
+      <c r="U24">
         <v>6</v>
       </c>
-      <c r="S24">
+      <c r="V24">
         <v>46455</v>
       </c>
-      <c r="T24">
+      <c r="W24">
         <v>1.51753497123718</v>
       </c>
-    </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="X24">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>22</v>
       </c>
@@ -7993,44 +8242,52 @@
       <c r="E25">
         <v>8.0211162567138602E-3</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>123</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>10</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>28837</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>0.49782371520995999</v>
       </c>
-      <c r="L25" t="s">
+      <c r="N25" t="s">
         <v>224</v>
       </c>
-      <c r="M25">
-        <v>1</v>
-      </c>
-      <c r="N25">
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25">
         <v>4987</v>
       </c>
-      <c r="O25">
+      <c r="Q25">
         <v>0.12583470344543399</v>
       </c>
-      <c r="Q25" t="s">
+      <c r="R25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T25" t="s">
         <v>325</v>
       </c>
-      <c r="R25">
+      <c r="U25">
         <v>2</v>
       </c>
-      <c r="S25">
+      <c r="V25">
         <v>13925</v>
       </c>
-      <c r="T25">
+      <c r="W25">
         <v>0.45571160316467202</v>
       </c>
-    </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="X25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>23</v>
       </c>
@@ -8043,44 +8300,52 @@
       <c r="E26">
         <v>9.5255374908447196E-3</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>124</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>2</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>5949</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>0.103775739669799</v>
       </c>
-      <c r="L26" t="s">
+      <c r="N26" t="s">
         <v>225</v>
       </c>
-      <c r="M26">
+      <c r="O26">
         <v>283</v>
       </c>
-      <c r="N26">
+      <c r="P26">
         <v>1427700</v>
       </c>
-      <c r="O26">
+      <c r="Q26">
         <v>35.641258716583202</v>
       </c>
-      <c r="Q26" t="s">
+      <c r="R26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T26" t="s">
         <v>326</v>
       </c>
-      <c r="R26">
+      <c r="U26">
         <v>8</v>
       </c>
-      <c r="S26">
+      <c r="V26">
         <v>53050</v>
       </c>
-      <c r="T26">
+      <c r="W26">
         <v>1.7295982837677</v>
       </c>
-    </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="X26">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>24</v>
       </c>
@@ -8093,44 +8358,52 @@
       <c r="E27">
         <v>8.0213546752929601E-3</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>125</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>3</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>9614</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>0.16995191574096599</v>
       </c>
-      <c r="L27" t="s">
+      <c r="N27" t="s">
         <v>226</v>
       </c>
-      <c r="M27">
+      <c r="O27">
         <v>151</v>
       </c>
-      <c r="N27">
+      <c r="P27">
         <v>724166</v>
       </c>
-      <c r="O27">
+      <c r="Q27">
         <v>18.242501020431501</v>
       </c>
-      <c r="Q27" t="s">
+      <c r="R27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T27" t="s">
         <v>327</v>
       </c>
-      <c r="R27">
+      <c r="U27">
         <v>13</v>
       </c>
-      <c r="S27">
+      <c r="V27">
         <v>96695</v>
       </c>
-      <c r="T27">
+      <c r="W27">
         <v>3.1493730545043901</v>
       </c>
-    </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="X27">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>25</v>
       </c>
@@ -8143,44 +8416,52 @@
       <c r="E28">
         <v>8.5225105285644497E-3</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>126</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>26</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>70823</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>1.2247562408447199</v>
       </c>
-      <c r="L28" t="s">
+      <c r="N28" t="s">
         <v>227</v>
       </c>
-      <c r="M28">
-        <v>1</v>
-      </c>
-      <c r="N28">
+      <c r="O28">
+        <v>1</v>
+      </c>
+      <c r="P28">
         <v>4969</v>
       </c>
-      <c r="O28">
+      <c r="Q28">
         <v>0.126335859298706</v>
       </c>
-      <c r="Q28" t="s">
+      <c r="R28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T28" t="s">
         <v>328</v>
       </c>
-      <c r="R28">
+      <c r="U28">
         <v>43</v>
       </c>
-      <c r="S28">
+      <c r="V28">
         <v>307259</v>
       </c>
-      <c r="T28">
+      <c r="W28">
         <v>10.041697740554801</v>
       </c>
-    </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="X28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>26</v>
       </c>
@@ -8193,44 +8474,52 @@
       <c r="E29">
         <v>8.0213546752929601E-3</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>127</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>29</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>84368</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>1.44032931327819</v>
       </c>
-      <c r="L29" t="s">
+      <c r="N29" t="s">
         <v>228</v>
       </c>
-      <c r="M29">
+      <c r="O29">
         <v>21</v>
       </c>
-      <c r="N29">
+      <c r="P29">
         <v>103672</v>
       </c>
-      <c r="O29">
+      <c r="Q29">
         <v>2.6330003738403298</v>
       </c>
-      <c r="Q29" t="s">
+      <c r="R29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T29" t="s">
         <v>329</v>
       </c>
-      <c r="R29">
+      <c r="U29">
         <v>158</v>
       </c>
-      <c r="S29">
+      <c r="V29">
         <v>1148563</v>
       </c>
-      <c r="T29">
+      <c r="W29">
         <v>37.279113292693999</v>
       </c>
-    </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="X29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>27</v>
       </c>
@@ -8243,44 +8532,52 @@
       <c r="E30">
         <v>8.5225105285644497E-3</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>128</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>2</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>6357</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>0.11129570007324199</v>
       </c>
-      <c r="L30" t="s">
+      <c r="N30" t="s">
         <v>229</v>
       </c>
-      <c r="M30">
+      <c r="O30">
         <v>2</v>
       </c>
-      <c r="N30">
+      <c r="P30">
         <v>10499</v>
       </c>
-      <c r="O30">
+      <c r="Q30">
         <v>0.27573299407958901</v>
       </c>
-      <c r="Q30" t="s">
+      <c r="R30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T30" t="s">
         <v>330</v>
       </c>
-      <c r="R30">
+      <c r="U30">
         <v>599</v>
       </c>
-      <c r="S30">
+      <c r="V30">
         <v>4317628</v>
       </c>
-      <c r="T30">
+      <c r="W30">
         <v>141.25706624984701</v>
       </c>
-    </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="X30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>28</v>
       </c>
@@ -8293,44 +8590,52 @@
       <c r="E31">
         <v>7.0185661315917899E-3</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>129</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>3</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>8488</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>0.146389245986938</v>
       </c>
-      <c r="L31" t="s">
+      <c r="N31" t="s">
         <v>230</v>
       </c>
-      <c r="M31">
+      <c r="O31">
         <v>13</v>
       </c>
-      <c r="N31">
+      <c r="P31">
         <v>61950</v>
       </c>
-      <c r="O31">
+      <c r="Q31">
         <v>1.67946505546569</v>
       </c>
-      <c r="Q31" t="s">
+      <c r="R31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T31" t="s">
         <v>331</v>
       </c>
-      <c r="R31">
+      <c r="U31">
         <v>80</v>
       </c>
-      <c r="S31">
+      <c r="V31">
         <v>589282</v>
       </c>
-      <c r="T31">
+      <c r="W31">
         <v>19.262713432312001</v>
       </c>
-    </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="X31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>29</v>
       </c>
@@ -8343,44 +8648,52 @@
       <c r="E32">
         <v>9.0239048004150304E-3</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>130</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>2</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>6030</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>0.10427713394165</v>
       </c>
-      <c r="L32" t="s">
+      <c r="N32" t="s">
         <v>231</v>
       </c>
-      <c r="M32">
+      <c r="O32">
         <v>11</v>
       </c>
-      <c r="N32">
+      <c r="P32">
         <v>57034</v>
       </c>
-      <c r="O32">
+      <c r="Q32">
         <v>1.69651055335998</v>
       </c>
-      <c r="Q32" t="s">
+      <c r="R32">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T32" t="s">
         <v>332</v>
       </c>
-      <c r="R32">
+      <c r="U32">
         <v>3</v>
       </c>
-      <c r="S32">
+      <c r="V32">
         <v>21023</v>
       </c>
-      <c r="T32">
+      <c r="W32">
         <v>0.69234061241149902</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="X32">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>30</v>
       </c>
@@ -8393,44 +8706,52 @@
       <c r="E33">
         <v>7.5199604034423802E-3</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>131</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>9</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>26538</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>0.46222925186157199</v>
       </c>
-      <c r="L33" t="s">
+      <c r="N33" t="s">
         <v>232</v>
       </c>
-      <c r="M33">
+      <c r="O33">
         <v>2</v>
       </c>
-      <c r="N33">
+      <c r="P33">
         <v>10070</v>
       </c>
-      <c r="O33">
+      <c r="Q33">
         <v>0.26320004463195801</v>
       </c>
-      <c r="Q33" t="s">
+      <c r="R33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T33" t="s">
         <v>333</v>
       </c>
-      <c r="R33">
+      <c r="U33">
         <v>177</v>
       </c>
-      <c r="S33">
+      <c r="V33">
         <v>1273944</v>
       </c>
-      <c r="T33">
+      <c r="W33">
         <v>41.387536048889103</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="X33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>31</v>
       </c>
@@ -8443,44 +8764,52 @@
       <c r="E34">
         <v>9.0241432189941406E-3</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>132</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>3</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>7693</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>0.13485813140869099</v>
       </c>
-      <c r="L34" t="s">
+      <c r="N34" t="s">
         <v>233</v>
       </c>
-      <c r="M34">
+      <c r="O34">
         <v>15</v>
       </c>
-      <c r="N34">
+      <c r="P34">
         <v>74895</v>
       </c>
-      <c r="O34">
+      <c r="Q34">
         <v>1.93715023994445</v>
       </c>
-      <c r="Q34" t="s">
+      <c r="R34">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T34" t="s">
         <v>334</v>
       </c>
-      <c r="R34">
+      <c r="U34">
         <v>26</v>
       </c>
-      <c r="S34">
+      <c r="V34">
         <v>187713</v>
       </c>
-      <c r="T34">
+      <c r="W34">
         <v>6.1217758655548096</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="X34">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>32</v>
       </c>
@@ -8493,44 +8822,52 @@
       <c r="E35">
         <v>7.5199604034423802E-3</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>133</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>5</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>14044</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>0.24414944648742601</v>
       </c>
-      <c r="L35" t="s">
+      <c r="N35" t="s">
         <v>234</v>
       </c>
-      <c r="M35">
+      <c r="O35">
         <v>31</v>
       </c>
-      <c r="N35">
+      <c r="P35">
         <v>152244</v>
       </c>
-      <c r="O35">
+      <c r="Q35">
         <v>3.9154095649719198</v>
       </c>
-      <c r="Q35" t="s">
+      <c r="R35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T35" t="s">
         <v>335</v>
       </c>
-      <c r="R35">
+      <c r="U35">
         <v>243</v>
       </c>
-      <c r="S35">
+      <c r="V35">
         <v>1714030</v>
       </c>
-      <c r="T35">
+      <c r="W35">
         <v>55.679036140441802</v>
       </c>
-    </row>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="X35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>33</v>
       </c>
@@ -8543,44 +8880,52 @@
       <c r="E36">
         <v>9.5255374908447196E-3</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>134</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>6</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>17791</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>0.30882072448730402</v>
       </c>
-      <c r="L36" t="s">
+      <c r="N36" t="s">
         <v>235</v>
       </c>
-      <c r="M36">
+      <c r="O36">
         <v>18</v>
       </c>
-      <c r="N36">
+      <c r="P36">
         <v>86848</v>
       </c>
-      <c r="O36">
+      <c r="Q36">
         <v>2.2073686122894198</v>
       </c>
-      <c r="Q36" t="s">
+      <c r="R36">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T36" t="s">
         <v>336</v>
       </c>
-      <c r="R36">
+      <c r="U36">
         <v>5</v>
       </c>
-      <c r="S36">
+      <c r="V36">
         <v>39189</v>
       </c>
-      <c r="T36">
+      <c r="W36">
         <v>1.2804038524627599</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="X36">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>34</v>
       </c>
@@ -8593,44 +8938,52 @@
       <c r="E37">
         <v>7.0183277130126901E-3</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>135</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>6</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>16670</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>0.29077339172363198</v>
       </c>
-      <c r="L37" t="s">
+      <c r="N37" t="s">
         <v>236</v>
       </c>
-      <c r="M37">
+      <c r="O37">
         <v>151</v>
       </c>
-      <c r="N37">
+      <c r="P37">
         <v>734741</v>
       </c>
-      <c r="O37">
+      <c r="Q37">
         <v>18.702223539352399</v>
       </c>
-      <c r="Q37" t="s">
+      <c r="R37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T37" t="s">
         <v>337</v>
       </c>
-      <c r="R37">
+      <c r="U37">
         <v>838</v>
       </c>
-      <c r="S37">
+      <c r="V37">
         <v>6052439</v>
       </c>
-      <c r="T37">
+      <c r="W37">
         <v>198.508278608322</v>
       </c>
-    </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="X37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>35</v>
       </c>
@@ -8643,44 +8996,52 @@
       <c r="E38">
         <v>8.0211162567138602E-3</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>136</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>4</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>12170</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>0.21256446838378901</v>
       </c>
-      <c r="L38" t="s">
+      <c r="N38" t="s">
         <v>237</v>
       </c>
-      <c r="M38">
+      <c r="O38">
         <v>9</v>
       </c>
-      <c r="N38">
+      <c r="P38">
         <v>46943</v>
       </c>
-      <c r="O38">
+      <c r="Q38">
         <v>1.19417476654052</v>
       </c>
-      <c r="Q38" t="s">
+      <c r="R38">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T38" t="s">
         <v>338</v>
       </c>
-      <c r="R38">
+      <c r="U38">
         <v>43</v>
       </c>
-      <c r="S38">
+      <c r="V38">
         <v>311115</v>
       </c>
-      <c r="T38">
+      <c r="W38">
         <v>10.1469774246215</v>
       </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="X38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>36</v>
       </c>
@@ -8693,44 +9054,52 @@
       <c r="E39">
         <v>9.0241432189941406E-3</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>137</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>25</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>68106</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <v>1.19317197799682</v>
       </c>
-      <c r="L39" t="s">
+      <c r="N39" t="s">
         <v>238</v>
       </c>
-      <c r="M39">
+      <c r="O39">
         <v>51</v>
       </c>
-      <c r="N39">
+      <c r="P39">
         <v>255754</v>
       </c>
-      <c r="O39">
+      <c r="Q39">
         <v>6.4747140407562203</v>
       </c>
-      <c r="Q39" t="s">
+      <c r="R39">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T39" t="s">
         <v>339</v>
       </c>
-      <c r="R39">
+      <c r="U39">
         <v>61</v>
       </c>
-      <c r="S39">
+      <c r="V39">
         <v>442702</v>
       </c>
-      <c r="T39">
+      <c r="W39">
         <v>14.497043132781901</v>
       </c>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="X39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>37</v>
       </c>
@@ -8743,44 +9112,52 @@
       <c r="E40">
         <v>8.0213546752929601E-3</v>
       </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>138</v>
       </c>
-      <c r="H40">
-        <v>1</v>
-      </c>
       <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
         <v>2792</v>
       </c>
-      <c r="J40">
+      <c r="K40">
         <v>4.8629283905029297E-2</v>
       </c>
-      <c r="L40" t="s">
+      <c r="N40" t="s">
         <v>239</v>
       </c>
-      <c r="M40">
-        <v>1</v>
-      </c>
-      <c r="N40">
+      <c r="O40">
+        <v>1</v>
+      </c>
+      <c r="P40">
         <v>5440</v>
       </c>
-      <c r="O40">
+      <c r="Q40">
         <v>0.132853507995605</v>
       </c>
-      <c r="Q40" t="s">
+      <c r="R40">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T40" t="s">
         <v>340</v>
       </c>
-      <c r="R40">
+      <c r="U40">
         <v>61</v>
       </c>
-      <c r="S40">
+      <c r="V40">
         <v>435608</v>
       </c>
-      <c r="T40">
+      <c r="W40">
         <v>14.156637907028101</v>
       </c>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="X40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>38</v>
       </c>
@@ -8793,44 +9170,52 @@
       <c r="E41">
         <v>9.0241432189941406E-3</v>
       </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>139</v>
       </c>
-      <c r="H41">
-        <v>1</v>
-      </c>
       <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
         <v>3317</v>
       </c>
-      <c r="J41">
+      <c r="K41">
         <v>5.7653665542602497E-2</v>
       </c>
-      <c r="L41" t="s">
+      <c r="N41" t="s">
         <v>240</v>
       </c>
-      <c r="M41">
+      <c r="O41">
         <v>22</v>
       </c>
-      <c r="N41">
+      <c r="P41">
         <v>108824</v>
       </c>
-      <c r="O41">
+      <c r="Q41">
         <v>2.71120834350585</v>
       </c>
-      <c r="Q41" t="s">
+      <c r="R41">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T41" t="s">
         <v>341</v>
       </c>
-      <c r="R41">
+      <c r="U41">
         <v>16</v>
       </c>
-      <c r="S41">
+      <c r="V41">
         <v>116385</v>
       </c>
-      <c r="T41">
+      <c r="W41">
         <v>3.7945885658264098</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="X41">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>39</v>
       </c>
@@ -8843,44 +9228,52 @@
       <c r="E42">
         <v>2.3562431335449201E-2</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>140</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>28</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <v>82412</v>
       </c>
-      <c r="J42">
+      <c r="K42">
         <v>1.4343135356903001</v>
       </c>
-      <c r="L42" t="s">
+      <c r="N42" t="s">
         <v>241</v>
       </c>
-      <c r="M42">
+      <c r="O42">
         <v>29</v>
       </c>
-      <c r="N42">
+      <c r="P42">
         <v>147516</v>
       </c>
-      <c r="O42">
+      <c r="Q42">
         <v>3.6903111934661799</v>
       </c>
-      <c r="Q42" t="s">
+      <c r="R42">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T42" t="s">
         <v>342</v>
       </c>
-      <c r="R42">
+      <c r="U42">
         <v>122</v>
       </c>
-      <c r="S42">
+      <c r="V42">
         <v>871339</v>
       </c>
-      <c r="T42">
+      <c r="W42">
         <v>28.210505962371801</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="X42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>40</v>
       </c>
@@ -8893,44 +9286,52 @@
       <c r="E43">
         <v>7.52019882202148E-3</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>141</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>7</v>
       </c>
-      <c r="I43">
+      <c r="J43">
         <v>20682</v>
       </c>
-      <c r="J43">
+      <c r="K43">
         <v>0.36346626281738198</v>
       </c>
-      <c r="L43" t="s">
+      <c r="N43" t="s">
         <v>242</v>
       </c>
-      <c r="M43">
+      <c r="O43">
         <v>2</v>
       </c>
-      <c r="N43">
+      <c r="P43">
         <v>10032</v>
       </c>
-      <c r="O43">
+      <c r="Q43">
         <v>0.25116777420043901</v>
       </c>
-      <c r="Q43" t="s">
+      <c r="R43">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T43" t="s">
         <v>343</v>
       </c>
-      <c r="R43">
+      <c r="U43">
         <v>94</v>
       </c>
-      <c r="S43">
+      <c r="V43">
         <v>680767</v>
       </c>
-      <c r="T43">
+      <c r="W43">
         <v>22.050625801086401</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="X43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>41</v>
       </c>
@@ -8943,44 +9344,52 @@
       <c r="E44">
         <v>6.5171718597412101E-3</v>
       </c>
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>142</v>
       </c>
-      <c r="H44">
-        <v>1</v>
-      </c>
       <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
         <v>2725</v>
       </c>
-      <c r="J44">
+      <c r="K44">
         <v>4.6623945236205999E-2</v>
       </c>
-      <c r="L44" t="s">
+      <c r="N44" t="s">
         <v>243</v>
       </c>
-      <c r="M44">
+      <c r="O44">
         <v>358</v>
       </c>
-      <c r="N44">
+      <c r="P44">
         <v>1751666</v>
       </c>
-      <c r="O44">
+      <c r="Q44">
         <v>44.339885950088501</v>
       </c>
-      <c r="Q44" t="s">
+      <c r="R44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T44" t="s">
         <v>344</v>
       </c>
-      <c r="R44">
+      <c r="U44">
         <v>135</v>
       </c>
-      <c r="S44">
+      <c r="V44">
         <v>977287</v>
       </c>
-      <c r="T44">
+      <c r="W44">
         <v>31.9900510311126</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="X44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>42</v>
       </c>
@@ -8993,44 +9402,52 @@
       <c r="E45">
         <v>9.0239048004150304E-3</v>
       </c>
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>143</v>
       </c>
-      <c r="H45">
-        <v>1</v>
-      </c>
       <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
         <v>2406</v>
       </c>
-      <c r="J45">
+      <c r="K45">
         <v>4.16107177734375E-2</v>
       </c>
-      <c r="L45" t="s">
+      <c r="N45" t="s">
         <v>244</v>
       </c>
-      <c r="M45">
+      <c r="O45">
         <v>14</v>
       </c>
-      <c r="N45">
+      <c r="P45">
         <v>67762</v>
       </c>
-      <c r="O45">
+      <c r="Q45">
         <v>1.7411291599273599</v>
       </c>
-      <c r="Q45" t="s">
+      <c r="R45">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T45" t="s">
         <v>345</v>
       </c>
-      <c r="R45">
+      <c r="U45">
         <v>2</v>
       </c>
-      <c r="S45">
+      <c r="V45">
         <v>17562</v>
       </c>
-      <c r="T45">
+      <c r="W45">
         <v>0.566506147384643</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="X45">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>43</v>
       </c>
@@ -9043,44 +9460,52 @@
       <c r="E46">
         <v>7.52019882202148E-3</v>
       </c>
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>144</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <v>2</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <v>6375</v>
       </c>
-      <c r="J46">
+      <c r="K46">
         <v>0.112298488616943</v>
       </c>
-      <c r="L46" t="s">
+      <c r="N46" t="s">
         <v>245</v>
       </c>
-      <c r="M46">
+      <c r="O46">
         <v>13</v>
       </c>
-      <c r="N46">
+      <c r="P46">
         <v>64742</v>
       </c>
-      <c r="O46">
+      <c r="Q46">
         <v>1.6438705921173</v>
       </c>
-      <c r="Q46" t="s">
+      <c r="R46">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T46" t="s">
         <v>346</v>
       </c>
-      <c r="R46">
+      <c r="U46">
         <v>21</v>
       </c>
-      <c r="S46">
+      <c r="V46">
         <v>147044</v>
       </c>
-      <c r="T46">
+      <c r="W46">
         <v>4.7596545219421298</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="X46">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>44</v>
       </c>
@@ -9093,44 +9518,52 @@
       <c r="E47">
         <v>9.5252990722656198E-3</v>
       </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>145</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <v>10</v>
       </c>
-      <c r="I47">
+      <c r="J47">
         <v>27990</v>
       </c>
-      <c r="J47">
+      <c r="K47">
         <v>0.49631953239440901</v>
       </c>
-      <c r="L47" t="s">
+      <c r="N47" t="s">
         <v>246</v>
       </c>
-      <c r="M47">
+      <c r="O47">
         <v>4</v>
       </c>
-      <c r="N47">
+      <c r="P47">
         <v>20518</v>
       </c>
-      <c r="O47">
+      <c r="Q47">
         <v>0.52188754081725997</v>
       </c>
-      <c r="Q47" t="s">
+      <c r="R47">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T47" t="s">
         <v>347</v>
       </c>
-      <c r="R47">
+      <c r="U47">
         <v>46</v>
       </c>
-      <c r="S47">
+      <c r="V47">
         <v>331510</v>
       </c>
-      <c r="T47">
+      <c r="W47">
         <v>10.811243534088099</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="X47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>45</v>
       </c>
@@ -9143,44 +9576,52 @@
       <c r="E48">
         <v>7.5199604034423802E-3</v>
       </c>
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>146</v>
       </c>
-      <c r="H48">
+      <c r="I48">
         <v>10</v>
       </c>
-      <c r="I48">
+      <c r="J48">
         <v>29041</v>
       </c>
-      <c r="J48">
+      <c r="K48">
         <v>0.50734901428222601</v>
       </c>
-      <c r="L48" t="s">
+      <c r="N48" t="s">
         <v>247</v>
       </c>
-      <c r="M48">
+      <c r="O48">
         <v>101</v>
       </c>
-      <c r="N48">
+      <c r="P48">
         <v>487154</v>
       </c>
-      <c r="O48">
+      <c r="Q48">
         <v>12.285162448883</v>
       </c>
-      <c r="Q48" t="s">
+      <c r="R48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T48" t="s">
         <v>348</v>
       </c>
-      <c r="R48">
+      <c r="U48">
         <v>48</v>
       </c>
-      <c r="S48">
+      <c r="V48">
         <v>339939</v>
       </c>
-      <c r="T48">
+      <c r="W48">
         <v>11.3035526275634</v>
       </c>
-    </row>
-    <row r="49" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="X48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>46</v>
       </c>
@@ -9193,44 +9634,52 @@
       <c r="E49">
         <v>6.5171718597412101E-3</v>
       </c>
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>147</v>
       </c>
-      <c r="H49">
+      <c r="I49">
         <v>2</v>
       </c>
-      <c r="I49">
+      <c r="J49">
         <v>6239</v>
       </c>
-      <c r="J49">
+      <c r="K49">
         <v>0.109290361404418</v>
       </c>
-      <c r="L49" t="s">
+      <c r="N49" t="s">
         <v>248</v>
       </c>
-      <c r="M49">
+      <c r="O49">
         <v>2</v>
       </c>
-      <c r="N49">
+      <c r="P49">
         <v>11368</v>
       </c>
-      <c r="O49">
+      <c r="Q49">
         <v>0.28776454925537098</v>
       </c>
-      <c r="Q49" t="s">
+      <c r="R49">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T49" t="s">
         <v>349</v>
       </c>
-      <c r="R49">
+      <c r="U49">
         <v>51</v>
       </c>
-      <c r="S49">
+      <c r="V49">
         <v>353850</v>
       </c>
-      <c r="T49">
+      <c r="W49">
         <v>11.4830298423767</v>
       </c>
-    </row>
-    <row r="50" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="X49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>47</v>
       </c>
@@ -9243,44 +9692,52 @@
       <c r="E50">
         <v>8.5227489471435495E-3</v>
       </c>
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>148</v>
       </c>
-      <c r="H50">
+      <c r="I50">
         <v>2</v>
       </c>
-      <c r="I50">
+      <c r="J50">
         <v>6387</v>
       </c>
-      <c r="J50">
+      <c r="K50">
         <v>0.11079454421997</v>
       </c>
-      <c r="L50" t="s">
+      <c r="N50" t="s">
         <v>249</v>
       </c>
-      <c r="M50">
+      <c r="O50">
         <v>122</v>
       </c>
-      <c r="N50">
+      <c r="P50">
         <v>582309</v>
       </c>
-      <c r="O50">
+      <c r="Q50">
         <v>14.6519582271575</v>
       </c>
-      <c r="Q50" t="s">
+      <c r="R50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T50" t="s">
         <v>350</v>
       </c>
-      <c r="R50">
+      <c r="U50">
         <v>2</v>
       </c>
-      <c r="S50">
+      <c r="V50">
         <v>13914</v>
       </c>
-      <c r="T50">
+      <c r="W50">
         <v>0.478271484375</v>
       </c>
-    </row>
-    <row r="51" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="X50">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>48</v>
       </c>
@@ -9293,44 +9750,52 @@
       <c r="E51">
         <v>1.6042470932006801E-2</v>
       </c>
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>149</v>
       </c>
-      <c r="H51">
-        <v>1</v>
-      </c>
       <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51">
         <v>2718</v>
       </c>
-      <c r="J51">
+      <c r="K51">
         <v>4.8629999160766602E-2</v>
       </c>
-      <c r="L51" t="s">
+      <c r="N51" t="s">
         <v>250</v>
       </c>
-      <c r="M51">
+      <c r="O51">
         <v>63</v>
       </c>
-      <c r="N51">
+      <c r="P51">
         <v>310460</v>
       </c>
-      <c r="O51">
+      <c r="Q51">
         <v>7.8563876152038503</v>
       </c>
-      <c r="Q51" t="s">
+      <c r="R51">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T51" t="s">
         <v>351</v>
       </c>
-      <c r="R51">
+      <c r="U51">
         <v>1020</v>
       </c>
-      <c r="S51">
+      <c r="V51">
         <v>7313509</v>
       </c>
-      <c r="T51">
+      <c r="W51">
         <v>241.739806175231</v>
       </c>
-    </row>
-    <row r="52" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="X51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>49</v>
       </c>
@@ -9343,44 +9808,52 @@
       <c r="E52">
         <v>7.0188045501708898E-3</v>
       </c>
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>150</v>
       </c>
-      <c r="H52">
+      <c r="I52">
         <v>6</v>
       </c>
-      <c r="I52">
+      <c r="J52">
         <v>15959</v>
       </c>
-      <c r="J52">
+      <c r="K52">
         <v>0.27773809432983398</v>
       </c>
-      <c r="L52" t="s">
+      <c r="N52" t="s">
         <v>251</v>
       </c>
-      <c r="M52">
+      <c r="O52">
         <v>3</v>
       </c>
-      <c r="N52">
+      <c r="P52">
         <v>15786</v>
       </c>
-      <c r="O52">
+      <c r="Q52">
         <v>0.396053075790405</v>
       </c>
-      <c r="Q52" t="s">
+      <c r="R52">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T52" t="s">
         <v>352</v>
       </c>
-      <c r="R52">
+      <c r="U52">
         <v>15</v>
       </c>
-      <c r="S52">
+      <c r="V52">
         <v>111172</v>
       </c>
-      <c r="T52">
+      <c r="W52">
         <v>3.72239637374877</v>
       </c>
-    </row>
-    <row r="53" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="X52">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>50</v>
       </c>
@@ -9393,44 +9866,52 @@
       <c r="E53">
         <v>7.5197219848632804E-3</v>
       </c>
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>151</v>
       </c>
-      <c r="H53">
+      <c r="I53">
         <v>2</v>
       </c>
-      <c r="I53">
+      <c r="J53">
         <v>6147</v>
       </c>
-      <c r="J53">
+      <c r="K53">
         <v>0.108287811279296</v>
       </c>
-      <c r="L53" t="s">
+      <c r="N53" t="s">
         <v>252</v>
       </c>
-      <c r="M53">
+      <c r="O53">
         <v>4</v>
       </c>
-      <c r="N53">
+      <c r="P53">
         <v>19810</v>
       </c>
-      <c r="O53">
+      <c r="Q53">
         <v>0.50233578681945801</v>
       </c>
-      <c r="Q53" t="s">
+      <c r="R53">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T53" t="s">
         <v>353</v>
       </c>
-      <c r="R53">
+      <c r="U53">
         <v>139</v>
       </c>
-      <c r="S53">
+      <c r="V53">
         <v>991083</v>
       </c>
-      <c r="T53">
+      <c r="W53">
         <v>32.511548757553101</v>
       </c>
-    </row>
-    <row r="54" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="X53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>51</v>
       </c>
@@ -9443,44 +9924,52 @@
       <c r="E54">
         <v>9.5255374908447196E-3</v>
       </c>
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>152</v>
       </c>
-      <c r="H54">
+      <c r="I54">
         <v>28</v>
       </c>
-      <c r="I54">
+      <c r="J54">
         <v>81576</v>
       </c>
-      <c r="J54">
+      <c r="K54">
         <v>1.3982174396514799</v>
       </c>
-      <c r="L54" t="s">
+      <c r="N54" t="s">
         <v>253</v>
       </c>
-      <c r="M54">
+      <c r="O54">
         <v>28</v>
       </c>
-      <c r="N54">
+      <c r="P54">
         <v>138125</v>
       </c>
-      <c r="O54">
+      <c r="Q54">
         <v>3.5519435405731201</v>
       </c>
-      <c r="Q54" t="s">
+      <c r="R54">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T54" t="s">
         <v>354</v>
       </c>
-      <c r="R54">
+      <c r="U54">
         <v>22</v>
       </c>
-      <c r="S54">
+      <c r="V54">
         <v>161459</v>
       </c>
-      <c r="T54">
+      <c r="W54">
         <v>5.3552377223968497</v>
       </c>
-    </row>
-    <row r="55" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="X54">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>52</v>
       </c>
@@ -9493,44 +9982,52 @@
       <c r="E55">
         <v>1.50396823883056E-2</v>
       </c>
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>153</v>
       </c>
-      <c r="H55">
-        <v>1</v>
-      </c>
       <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55">
         <v>3236</v>
       </c>
-      <c r="J55">
+      <c r="K55">
         <v>5.7653188705444301E-2</v>
       </c>
-      <c r="L55" t="s">
+      <c r="N55" t="s">
         <v>254</v>
       </c>
-      <c r="M55">
+      <c r="O55">
         <v>9</v>
       </c>
-      <c r="N55">
+      <c r="P55">
         <v>44683</v>
       </c>
-      <c r="O55">
+      <c r="Q55">
         <v>1.1435401439666699</v>
       </c>
-      <c r="Q55" t="s">
+      <c r="R55">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T55" t="s">
         <v>355</v>
       </c>
-      <c r="R55">
+      <c r="U55">
         <v>9</v>
       </c>
-      <c r="S55">
+      <c r="V55">
         <v>70318</v>
       </c>
-      <c r="T55">
+      <c r="W55">
         <v>2.3081362247467001</v>
       </c>
-    </row>
-    <row r="56" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="X55">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>53</v>
       </c>
@@ -9543,44 +10040,52 @@
       <c r="E56">
         <v>9.0241432189941406E-3</v>
       </c>
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>154</v>
       </c>
-      <c r="H56">
+      <c r="I56">
         <v>2</v>
       </c>
-      <c r="I56">
+      <c r="J56">
         <v>6086</v>
       </c>
-      <c r="J56">
+      <c r="K56">
         <v>0.106784105300903</v>
       </c>
-      <c r="L56" t="s">
+      <c r="N56" t="s">
         <v>255</v>
       </c>
-      <c r="M56">
+      <c r="O56">
         <v>18</v>
       </c>
-      <c r="N56">
+      <c r="P56">
         <v>87474</v>
       </c>
-      <c r="O56">
+      <c r="Q56">
         <v>2.2239127159118599</v>
       </c>
-      <c r="Q56" t="s">
+      <c r="R56">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T56" t="s">
         <v>356</v>
       </c>
-      <c r="R56">
+      <c r="U56">
         <v>484</v>
       </c>
-      <c r="S56">
+      <c r="V56">
         <v>3475640</v>
       </c>
-      <c r="T56">
+      <c r="W56">
         <v>115.381763458251</v>
       </c>
-    </row>
-    <row r="57" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="X56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>54</v>
       </c>
@@ -9593,44 +10098,52 @@
       <c r="E57">
         <v>9.0241432189941406E-3</v>
       </c>
-      <c r="G57" t="s">
+      <c r="H57" t="s">
         <v>155</v>
       </c>
-      <c r="H57">
+      <c r="I57">
         <v>2</v>
       </c>
-      <c r="I57">
+      <c r="J57">
         <v>5891</v>
       </c>
-      <c r="J57">
+      <c r="K57">
         <v>0.102773189544677</v>
       </c>
-      <c r="L57" t="s">
+      <c r="N57" t="s">
         <v>256</v>
       </c>
-      <c r="M57">
+      <c r="O57">
         <v>26</v>
       </c>
-      <c r="N57">
+      <c r="P57">
         <v>128439</v>
       </c>
-      <c r="O57">
+      <c r="Q57">
         <v>3.2757091522216699</v>
       </c>
-      <c r="Q57" t="s">
+      <c r="R57">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T57" t="s">
         <v>357</v>
       </c>
-      <c r="R57">
+      <c r="U57">
         <v>8</v>
       </c>
-      <c r="S57">
+      <c r="V57">
         <v>56917</v>
       </c>
-      <c r="T57">
+      <c r="W57">
         <v>1.8769900798797601</v>
       </c>
-    </row>
-    <row r="58" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="X57">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>55</v>
       </c>
@@ -9643,44 +10156,52 @@
       <c r="E58">
         <v>7.0185661315917899E-3</v>
       </c>
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>156</v>
       </c>
-      <c r="H58">
+      <c r="I58">
         <v>2</v>
       </c>
-      <c r="I58">
+      <c r="J58">
         <v>5674</v>
       </c>
-      <c r="J58">
+      <c r="K58">
         <v>9.8261117935180595E-2</v>
       </c>
-      <c r="L58" t="s">
+      <c r="N58" t="s">
         <v>257</v>
       </c>
-      <c r="M58">
+      <c r="O58">
         <v>11</v>
       </c>
-      <c r="N58">
+      <c r="P58">
         <v>53117</v>
       </c>
-      <c r="O58">
+      <c r="Q58">
         <v>1.33404660224914</v>
       </c>
-      <c r="Q58" t="s">
+      <c r="R58">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T58" t="s">
         <v>358</v>
       </c>
-      <c r="R58">
+      <c r="U58">
         <v>86</v>
       </c>
-      <c r="S58">
+      <c r="V58">
         <v>608566</v>
       </c>
-      <c r="T58">
+      <c r="W58">
         <v>20.1054542064666</v>
       </c>
-    </row>
-    <row r="59" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="X58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>56</v>
       </c>
@@ -9693,44 +10214,52 @@
       <c r="E59">
         <v>8.0213546752929601E-3</v>
       </c>
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>157</v>
       </c>
-      <c r="H59">
-        <v>1</v>
-      </c>
       <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59">
         <v>2832</v>
       </c>
-      <c r="J59">
+      <c r="K59">
         <v>4.9130916595458901E-2</v>
       </c>
-      <c r="L59" t="s">
+      <c r="N59" t="s">
         <v>258</v>
       </c>
-      <c r="M59">
+      <c r="O59">
         <v>8</v>
       </c>
-      <c r="N59">
+      <c r="P59">
         <v>38190</v>
       </c>
-      <c r="O59">
+      <c r="Q59">
         <v>0.95654296875</v>
       </c>
-      <c r="Q59" t="s">
+      <c r="R59">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T59" t="s">
         <v>359</v>
       </c>
-      <c r="R59">
+      <c r="U59">
         <v>5</v>
       </c>
-      <c r="S59">
+      <c r="V59">
         <v>36909</v>
       </c>
-      <c r="T59">
+      <c r="W59">
         <v>1.2192413806915201</v>
       </c>
-    </row>
-    <row r="60" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="X59">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>57</v>
       </c>
@@ -9743,44 +10272,52 @@
       <c r="E60">
         <v>9.0236663818359306E-3</v>
       </c>
-      <c r="G60" t="s">
+      <c r="H60" t="s">
         <v>158</v>
       </c>
-      <c r="H60">
-        <v>1</v>
-      </c>
       <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="J60">
         <v>3374</v>
       </c>
-      <c r="J60">
+      <c r="K60">
         <v>5.9157133102416902E-2</v>
       </c>
-      <c r="L60" t="s">
+      <c r="N60" t="s">
         <v>259</v>
       </c>
-      <c r="M60">
+      <c r="O60">
         <v>2</v>
       </c>
-      <c r="N60">
+      <c r="P60">
         <v>9415</v>
       </c>
-      <c r="O60">
+      <c r="Q60">
         <v>0.23311996459960899</v>
       </c>
-      <c r="Q60" t="s">
+      <c r="R60">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T60" t="s">
         <v>360</v>
       </c>
-      <c r="R60">
+      <c r="U60">
         <v>107</v>
       </c>
-      <c r="S60">
+      <c r="V60">
         <v>762710</v>
       </c>
-      <c r="T60">
+      <c r="W60">
         <v>25.059625864028899</v>
       </c>
-    </row>
-    <row r="61" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="X60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>58</v>
       </c>
@@ -9793,44 +10330,52 @@
       <c r="E61">
         <v>9.0241432189941406E-3</v>
       </c>
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>159</v>
       </c>
-      <c r="H61">
-        <v>1</v>
-      </c>
       <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61">
         <v>2883</v>
       </c>
-      <c r="J61">
+      <c r="K61">
         <v>5.0634384155273403E-2</v>
       </c>
-      <c r="L61" t="s">
+      <c r="N61" t="s">
         <v>260</v>
       </c>
-      <c r="M61">
+      <c r="O61">
         <v>2</v>
       </c>
-      <c r="N61">
+      <c r="P61">
         <v>10077</v>
       </c>
-      <c r="O61">
+      <c r="Q61">
         <v>0.25417590141296298</v>
       </c>
-      <c r="Q61" t="s">
+      <c r="R61">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T61" t="s">
         <v>361</v>
       </c>
-      <c r="R61">
+      <c r="U61">
         <v>2</v>
       </c>
-      <c r="S61">
+      <c r="V61">
         <v>14941</v>
       </c>
-      <c r="T61">
+      <c r="W61">
         <v>0.49130606651306102</v>
       </c>
-    </row>
-    <row r="62" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="X61">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>59</v>
       </c>
@@ -9843,44 +10388,52 @@
       <c r="E62">
         <v>9.5252990722656198E-3</v>
       </c>
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>160</v>
       </c>
-      <c r="H62">
+      <c r="I62">
         <v>8</v>
       </c>
-      <c r="I62">
+      <c r="J62">
         <v>21171</v>
       </c>
-      <c r="J62">
+      <c r="K62">
         <v>0.36948537826538003</v>
       </c>
-      <c r="L62" t="s">
+      <c r="N62" t="s">
         <v>261</v>
       </c>
-      <c r="M62">
+      <c r="O62">
         <v>9</v>
       </c>
-      <c r="N62">
+      <c r="P62">
         <v>47348</v>
       </c>
-      <c r="O62">
+      <c r="Q62">
         <v>1.1921694278717001</v>
       </c>
-      <c r="Q62" t="s">
+      <c r="R62">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T62" t="s">
         <v>362</v>
       </c>
-      <c r="R62">
+      <c r="U62">
         <v>3</v>
       </c>
-      <c r="S62">
+      <c r="V62">
         <v>24324</v>
       </c>
-      <c r="T62">
+      <c r="W62">
         <v>0.79812216758728005</v>
       </c>
-    </row>
-    <row r="63" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="X62">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>60</v>
       </c>
@@ -9893,44 +10446,52 @@
       <c r="E63">
         <v>1.0026693344116201E-2</v>
       </c>
-      <c r="G63" t="s">
+      <c r="H63" t="s">
         <v>161</v>
       </c>
-      <c r="H63">
+      <c r="I63">
         <v>4</v>
       </c>
-      <c r="I63">
+      <c r="J63">
         <v>11826</v>
       </c>
-      <c r="J63">
+      <c r="K63">
         <v>0.20955705642700101</v>
       </c>
-      <c r="L63" t="s">
+      <c r="N63" t="s">
         <v>262</v>
       </c>
-      <c r="M63">
+      <c r="O63">
         <v>2</v>
       </c>
-      <c r="N63">
+      <c r="P63">
         <v>9259</v>
       </c>
-      <c r="O63">
+      <c r="Q63">
         <v>0.23612785339355399</v>
       </c>
-      <c r="Q63" t="s">
+      <c r="R63">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T63" t="s">
         <v>363</v>
       </c>
-      <c r="R63">
+      <c r="U63">
         <v>3395</v>
       </c>
-      <c r="S63">
+      <c r="V63">
         <v>23839880</v>
       </c>
-      <c r="T63">
+      <c r="W63">
         <v>784.69158506393399</v>
       </c>
-    </row>
-    <row r="64" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="X63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>61</v>
       </c>
@@ -9943,44 +10504,52 @@
       <c r="E64">
         <v>7.5199604034423802E-3</v>
       </c>
-      <c r="G64" t="s">
+      <c r="H64" t="s">
         <v>162</v>
       </c>
-      <c r="H64">
-        <v>1</v>
-      </c>
       <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64">
         <v>2499</v>
       </c>
-      <c r="J64">
+      <c r="K64">
         <v>4.4618606567382799E-2</v>
       </c>
-      <c r="L64" t="s">
+      <c r="N64" t="s">
         <v>263</v>
       </c>
-      <c r="M64">
+      <c r="O64">
         <v>26</v>
       </c>
-      <c r="N64">
+      <c r="P64">
         <v>123443</v>
       </c>
-      <c r="O64">
+      <c r="Q64">
         <v>3.1207971572875901</v>
       </c>
-      <c r="Q64" t="s">
+      <c r="R64">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T64" t="s">
         <v>364</v>
       </c>
-      <c r="R64">
+      <c r="U64">
         <v>26</v>
       </c>
-      <c r="S64">
+      <c r="V64">
         <v>179490</v>
       </c>
-      <c r="T64">
+      <c r="W64">
         <v>5.77736020088195</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="X64">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>62</v>
       </c>
@@ -9993,44 +10562,52 @@
       <c r="E65">
         <v>8.0211162567138602E-3</v>
       </c>
-      <c r="G65" t="s">
+      <c r="H65" t="s">
         <v>163</v>
       </c>
-      <c r="H65">
+      <c r="I65">
         <v>5</v>
       </c>
-      <c r="I65">
+      <c r="J65">
         <v>14901</v>
       </c>
-      <c r="J65">
+      <c r="K65">
         <v>0.26069307327270502</v>
       </c>
-      <c r="L65" t="s">
+      <c r="N65" t="s">
         <v>264</v>
       </c>
-      <c r="M65">
+      <c r="O65">
         <v>2</v>
       </c>
-      <c r="N65">
+      <c r="P65">
         <v>10863</v>
       </c>
-      <c r="O65">
+      <c r="Q65">
         <v>0.27823972702026301</v>
       </c>
-      <c r="Q65" t="s">
+      <c r="R65">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T65" t="s">
         <v>365</v>
       </c>
-      <c r="R65">
+      <c r="U65">
         <v>37</v>
       </c>
-      <c r="S65">
+      <c r="V65">
         <v>264975</v>
       </c>
-      <c r="T65">
+      <c r="W65">
         <v>8.6429789066314697</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="X65">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>63</v>
       </c>
@@ -10043,44 +10620,52 @@
       <c r="E66">
         <v>9.0236663818359306E-3</v>
       </c>
-      <c r="G66" t="s">
+      <c r="H66" t="s">
         <v>164</v>
       </c>
-      <c r="H66">
+      <c r="I66">
         <v>2</v>
       </c>
-      <c r="I66">
+      <c r="J66">
         <v>6118</v>
       </c>
-      <c r="J66">
+      <c r="K66">
         <v>0.106282711029052</v>
       </c>
-      <c r="L66" t="s">
+      <c r="N66" t="s">
         <v>265</v>
       </c>
-      <c r="M66">
+      <c r="O66">
         <v>5</v>
       </c>
-      <c r="N66">
+      <c r="P66">
         <v>23790</v>
       </c>
-      <c r="O66">
+      <c r="Q66">
         <v>0.60861778259277299</v>
       </c>
-      <c r="Q66" t="s">
+      <c r="R66">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T66" t="s">
         <v>366</v>
       </c>
-      <c r="R66">
+      <c r="U66">
         <v>4</v>
       </c>
-      <c r="S66">
+      <c r="V66">
         <v>30249</v>
       </c>
-      <c r="T66">
+      <c r="W66">
         <v>0.98361515998840299</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="X66">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>64</v>
       </c>
@@ -10093,44 +10678,52 @@
       <c r="E67">
         <v>8.0211162567138602E-3</v>
       </c>
-      <c r="G67" t="s">
+      <c r="H67" t="s">
         <v>165</v>
       </c>
-      <c r="H67">
+      <c r="I67">
         <v>5</v>
       </c>
-      <c r="I67">
+      <c r="J67">
         <v>15395</v>
       </c>
-      <c r="J67">
+      <c r="K67">
         <v>0.26871442794799799</v>
       </c>
-      <c r="L67" t="s">
+      <c r="N67" t="s">
         <v>266</v>
       </c>
-      <c r="M67">
+      <c r="O67">
         <v>12</v>
       </c>
-      <c r="N67">
+      <c r="P67">
         <v>59162</v>
       </c>
-      <c r="O67">
+      <c r="Q67">
         <v>1.53407883644104</v>
       </c>
-      <c r="Q67" t="s">
+      <c r="R67">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T67" t="s">
         <v>367</v>
       </c>
-      <c r="R67">
+      <c r="U67">
         <v>37</v>
       </c>
-      <c r="S67">
+      <c r="V67">
         <v>263986</v>
       </c>
-      <c r="T67">
+      <c r="W67">
         <v>8.5336885452270508</v>
       </c>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="X67">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>65</v>
       </c>
@@ -10143,44 +10736,52 @@
       <c r="E68">
         <v>1.5541553497314399E-2</v>
       </c>
-      <c r="G68" t="s">
+      <c r="H68" t="s">
         <v>166</v>
       </c>
-      <c r="H68">
-        <v>1</v>
-      </c>
       <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68">
         <v>3486</v>
       </c>
-      <c r="J68">
+      <c r="K68">
         <v>6.06610774993896E-2</v>
       </c>
-      <c r="L68" t="s">
+      <c r="N68" t="s">
         <v>267</v>
       </c>
-      <c r="M68">
-        <v>1</v>
-      </c>
-      <c r="N68">
+      <c r="O68">
+        <v>1</v>
+      </c>
+      <c r="P68">
         <v>5307</v>
       </c>
-      <c r="O68">
+      <c r="Q68">
         <v>0.133855581283569</v>
       </c>
-      <c r="Q68" t="s">
+      <c r="R68">
+        <f t="shared" ref="R68:R102" si="2">IF(VALUE(Q68)&lt;10,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T68" t="s">
         <v>368</v>
       </c>
-      <c r="R68">
+      <c r="U68">
         <v>10</v>
       </c>
-      <c r="S68">
+      <c r="V68">
         <v>75368</v>
       </c>
-      <c r="T68">
+      <c r="W68">
         <v>2.4685628414153999</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="X68">
+        <f t="shared" ref="X68:X102" si="3">IF(VALUE(W68)&lt;10,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>66</v>
       </c>
@@ -10193,44 +10794,52 @@
       <c r="E69">
         <v>1.55413150787353E-2</v>
       </c>
-      <c r="G69" t="s">
+      <c r="H69" t="s">
         <v>167</v>
       </c>
-      <c r="H69">
+      <c r="I69">
         <v>14</v>
       </c>
-      <c r="I69">
+      <c r="J69">
         <v>40420</v>
       </c>
-      <c r="J69">
+      <c r="K69">
         <v>0.69735407829284601</v>
       </c>
-      <c r="L69" t="s">
+      <c r="N69" t="s">
         <v>268</v>
       </c>
-      <c r="M69">
+      <c r="O69">
         <v>14</v>
       </c>
-      <c r="N69">
+      <c r="P69">
         <v>71835</v>
       </c>
-      <c r="O69">
+      <c r="Q69">
         <v>1.8173313140869101</v>
       </c>
-      <c r="Q69" t="s">
+      <c r="R69">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T69" t="s">
         <v>369</v>
       </c>
-      <c r="R69">
+      <c r="U69">
         <v>10</v>
       </c>
-      <c r="S69">
+      <c r="V69">
         <v>70088</v>
       </c>
-      <c r="T69">
+      <c r="W69">
         <v>2.2670276165008501</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="X69">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>67</v>
       </c>
@@ -10243,44 +10852,52 @@
       <c r="E70">
         <v>1.45387649536132E-2</v>
       </c>
-      <c r="G70" t="s">
+      <c r="H70" t="s">
         <v>168</v>
       </c>
-      <c r="H70">
+      <c r="I70">
         <v>4</v>
       </c>
-      <c r="I70">
+      <c r="J70">
         <v>11431</v>
       </c>
-      <c r="J70">
+      <c r="K70">
         <v>0.19652295112609799</v>
       </c>
-      <c r="L70" t="s">
+      <c r="N70" t="s">
         <v>269</v>
       </c>
-      <c r="M70">
+      <c r="O70">
         <v>47</v>
       </c>
-      <c r="N70">
+      <c r="P70">
         <v>232520</v>
       </c>
-      <c r="O70">
+      <c r="Q70">
         <v>5.8786294460296604</v>
       </c>
-      <c r="Q70" t="s">
+      <c r="R70">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T70" t="s">
         <v>370</v>
       </c>
-      <c r="R70">
+      <c r="U70">
         <v>248</v>
       </c>
-      <c r="S70">
+      <c r="V70">
         <v>1781903</v>
       </c>
-      <c r="T70">
+      <c r="W70">
         <v>58.164641141891401</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="X70">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>68</v>
       </c>
@@ -10293,44 +10910,52 @@
       <c r="E71">
         <v>8.5227489471435495E-3</v>
       </c>
-      <c r="G71" t="s">
+      <c r="H71" t="s">
         <v>169</v>
       </c>
-      <c r="H71">
-        <v>1</v>
-      </c>
       <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="J71">
         <v>3233</v>
       </c>
-      <c r="J71">
+      <c r="K71">
         <v>5.6149005889892502E-2</v>
       </c>
-      <c r="L71" t="s">
+      <c r="N71" t="s">
         <v>270</v>
       </c>
-      <c r="M71">
+      <c r="O71">
         <v>19</v>
       </c>
-      <c r="N71">
+      <c r="P71">
         <v>94790</v>
       </c>
-      <c r="O71">
+      <c r="Q71">
         <v>2.4159235954284601</v>
       </c>
-      <c r="Q71" t="s">
+      <c r="R71">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T71" t="s">
         <v>371</v>
       </c>
-      <c r="R71">
+      <c r="U71">
         <v>450</v>
       </c>
-      <c r="S71">
+      <c r="V71">
         <v>3199450</v>
       </c>
-      <c r="T71">
+      <c r="W71">
         <v>104.66627454757599</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="X71">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>69</v>
       </c>
@@ -10343,44 +10968,52 @@
       <c r="E72">
         <v>1.50396823883056E-2</v>
       </c>
-      <c r="G72" t="s">
+      <c r="H72" t="s">
         <v>170</v>
       </c>
-      <c r="H72">
+      <c r="I72">
         <v>2</v>
       </c>
-      <c r="I72">
+      <c r="J72">
         <v>5909</v>
       </c>
-      <c r="J72">
+      <c r="K72">
         <v>0.102773189544677</v>
       </c>
-      <c r="L72" t="s">
+      <c r="N72" t="s">
         <v>271</v>
       </c>
-      <c r="M72">
+      <c r="O72">
         <v>7</v>
       </c>
-      <c r="N72">
+      <c r="P72">
         <v>32945</v>
       </c>
-      <c r="O72">
+      <c r="Q72">
         <v>0.834217548370361</v>
       </c>
-      <c r="Q72" t="s">
+      <c r="R72">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T72" t="s">
         <v>372</v>
       </c>
-      <c r="R72">
+      <c r="U72">
         <v>13</v>
       </c>
-      <c r="S72">
+      <c r="V72">
         <v>92943</v>
       </c>
-      <c r="T72">
+      <c r="W72">
         <v>2.9909517765045099</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="X72">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>70</v>
       </c>
@@ -10393,44 +11026,52 @@
       <c r="E73">
         <v>8.0215930938720703E-3</v>
       </c>
-      <c r="G73" t="s">
+      <c r="H73" t="s">
         <v>171</v>
       </c>
-      <c r="H73">
+      <c r="I73">
         <v>3</v>
       </c>
-      <c r="I73">
+      <c r="J73">
         <v>8331</v>
       </c>
-      <c r="J73">
+      <c r="K73">
         <v>0.14739203453063901</v>
       </c>
-      <c r="L73" t="s">
+      <c r="N73" t="s">
         <v>272</v>
       </c>
-      <c r="M73">
+      <c r="O73">
         <v>3</v>
       </c>
-      <c r="N73">
+      <c r="P73">
         <v>15827</v>
       </c>
-      <c r="O73">
+      <c r="Q73">
         <v>0.40708255767822199</v>
       </c>
-      <c r="Q73" t="s">
+      <c r="R73">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T73" t="s">
         <v>373</v>
       </c>
-      <c r="R73">
+      <c r="U73">
         <v>5</v>
       </c>
-      <c r="S73">
+      <c r="V73">
         <v>35946</v>
       </c>
-      <c r="T73">
+      <c r="W73">
         <v>1.16008448600769</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="X73">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>71</v>
       </c>
@@ -10443,44 +11084,52 @@
       <c r="E74">
         <v>8.0211162567138602E-3</v>
       </c>
-      <c r="G74" t="s">
+      <c r="H74" t="s">
         <v>172</v>
       </c>
-      <c r="H74">
+      <c r="I74">
         <v>2</v>
       </c>
-      <c r="I74">
+      <c r="J74">
         <v>5516</v>
       </c>
-      <c r="J74">
+      <c r="K74">
         <v>9.7258329391479395E-2</v>
       </c>
-      <c r="L74" t="s">
+      <c r="N74" t="s">
         <v>273</v>
       </c>
-      <c r="M74">
-        <v>1</v>
-      </c>
-      <c r="N74">
+      <c r="O74">
+        <v>1</v>
+      </c>
+      <c r="P74">
         <v>5187</v>
       </c>
-      <c r="O74">
+      <c r="Q74">
         <v>0.13385581970214799</v>
       </c>
-      <c r="Q74" t="s">
+      <c r="R74">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T74" t="s">
         <v>374</v>
       </c>
-      <c r="R74">
+      <c r="U74">
         <v>343</v>
       </c>
-      <c r="S74">
+      <c r="V74">
         <v>2461992</v>
       </c>
-      <c r="T74">
+      <c r="W74">
         <v>80.195213556289602</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="X74">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>72</v>
       </c>
@@ -10493,44 +11142,52 @@
       <c r="E75">
         <v>1.40376091003417E-2</v>
       </c>
-      <c r="G75" t="s">
+      <c r="H75" t="s">
         <v>173</v>
       </c>
-      <c r="H75">
+      <c r="I75">
         <v>7</v>
       </c>
-      <c r="I75">
+      <c r="J75">
         <v>19149</v>
       </c>
-      <c r="J75">
+      <c r="K75">
         <v>0.333386421203613</v>
       </c>
-      <c r="L75" t="s">
+      <c r="N75" t="s">
         <v>274</v>
       </c>
-      <c r="M75">
-        <v>1</v>
-      </c>
-      <c r="N75">
+      <c r="O75">
+        <v>1</v>
+      </c>
+      <c r="P75">
         <v>5625</v>
       </c>
-      <c r="O75">
+      <c r="Q75">
         <v>0.14789319038391099</v>
       </c>
-      <c r="Q75" t="s">
+      <c r="R75">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T75" t="s">
         <v>375</v>
       </c>
-      <c r="R75">
+      <c r="U75">
         <v>52</v>
       </c>
-      <c r="S75">
+      <c r="V75">
         <v>365977</v>
       </c>
-      <c r="T75">
+      <c r="W75">
         <v>11.7853333950042</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="X75">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>73</v>
       </c>
@@ -10543,44 +11200,52 @@
       <c r="E76">
         <v>8.0208778381347604E-3</v>
       </c>
-      <c r="G76" t="s">
+      <c r="H76" t="s">
         <v>174</v>
       </c>
-      <c r="H76">
+      <c r="I76">
         <v>4</v>
       </c>
-      <c r="I76">
+      <c r="J76">
         <v>10720</v>
       </c>
-      <c r="J76">
+      <c r="K76">
         <v>0.18699693679809501</v>
       </c>
-      <c r="L76" t="s">
+      <c r="N76" t="s">
         <v>275</v>
       </c>
-      <c r="M76">
+      <c r="O76">
         <v>7</v>
       </c>
-      <c r="N76">
+      <c r="P76">
         <v>36169</v>
       </c>
-      <c r="O76">
+      <c r="Q76">
         <v>0.92245244979858398</v>
       </c>
-      <c r="Q76" t="s">
+      <c r="R76">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T76" t="s">
         <v>376</v>
       </c>
-      <c r="R76">
+      <c r="U76">
         <v>7</v>
       </c>
-      <c r="S76">
+      <c r="V76">
         <v>50637</v>
       </c>
-      <c r="T76">
+      <c r="W76">
         <v>1.6543984413146899</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="X76">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>74</v>
       </c>
@@ -10593,44 +11258,52 @@
       <c r="E77">
         <v>1.6042947769165001E-2</v>
       </c>
-      <c r="G77" t="s">
+      <c r="H77" t="s">
         <v>175</v>
       </c>
-      <c r="H77">
-        <v>1</v>
-      </c>
       <c r="I77">
+        <v>1</v>
+      </c>
+      <c r="J77">
         <v>3790</v>
       </c>
-      <c r="J77">
+      <c r="K77">
         <v>6.4671993255615207E-2</v>
       </c>
-      <c r="L77" t="s">
+      <c r="N77" t="s">
         <v>276</v>
       </c>
-      <c r="M77">
+      <c r="O77">
         <v>19</v>
       </c>
-      <c r="N77">
+      <c r="P77">
         <v>93079</v>
       </c>
-      <c r="O77">
+      <c r="Q77">
         <v>2.3597738742828298</v>
       </c>
-      <c r="Q77" t="s">
+      <c r="R77">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T77" t="s">
         <v>377</v>
       </c>
-      <c r="R77">
+      <c r="U77">
         <v>45</v>
       </c>
-      <c r="S77">
+      <c r="V77">
         <v>315285</v>
       </c>
-      <c r="T77">
+      <c r="W77">
         <v>10.2512552738189</v>
       </c>
-    </row>
-    <row r="78" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="X77">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>75</v>
       </c>
@@ -10643,44 +11316,52 @@
       <c r="E78">
         <v>8.5222721099853498E-3</v>
       </c>
-      <c r="G78" t="s">
+      <c r="H78" t="s">
         <v>176</v>
       </c>
-      <c r="H78">
+      <c r="I78">
         <v>2</v>
       </c>
-      <c r="I78">
+      <c r="J78">
         <v>6038</v>
       </c>
-      <c r="J78">
+      <c r="K78">
         <v>0.106784105300903</v>
       </c>
-      <c r="L78" t="s">
+      <c r="N78" t="s">
         <v>277</v>
       </c>
-      <c r="M78">
+      <c r="O78">
         <v>2</v>
       </c>
-      <c r="N78">
+      <c r="P78">
         <v>9501</v>
       </c>
-      <c r="O78">
+      <c r="Q78">
         <v>0.24314641952514601</v>
       </c>
-      <c r="Q78" t="s">
+      <c r="R78">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T78" t="s">
         <v>378</v>
       </c>
-      <c r="R78">
+      <c r="U78">
         <v>10</v>
       </c>
-      <c r="S78">
+      <c r="V78">
         <v>72450</v>
       </c>
-      <c r="T78">
+      <c r="W78">
         <v>2.3181629180908199</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="X78">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>76</v>
       </c>
@@ -10693,44 +11374,52 @@
       <c r="E79">
         <v>2.30612754821777E-2</v>
       </c>
-      <c r="G79" t="s">
+      <c r="H79" t="s">
         <v>177</v>
       </c>
-      <c r="H79">
+      <c r="I79">
         <v>3</v>
       </c>
-      <c r="I79">
+      <c r="J79">
         <v>9211</v>
       </c>
-      <c r="J79">
+      <c r="K79">
         <v>0.16042661666870101</v>
       </c>
-      <c r="L79" t="s">
+      <c r="N79" t="s">
         <v>278</v>
       </c>
-      <c r="M79">
+      <c r="O79">
         <v>5</v>
       </c>
-      <c r="N79">
+      <c r="P79">
         <v>25493</v>
       </c>
-      <c r="O79">
+      <c r="Q79">
         <v>0.64220690727233798</v>
       </c>
-      <c r="Q79" t="s">
+      <c r="R79">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T79" t="s">
         <v>379</v>
       </c>
-      <c r="R79">
+      <c r="U79">
         <v>22</v>
       </c>
-      <c r="S79">
+      <c r="V79">
         <v>156740</v>
       </c>
-      <c r="T79">
+      <c r="W79">
         <v>5.1135952472686697</v>
       </c>
-    </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="X79">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>77</v>
       </c>
@@ -10743,44 +11432,52 @@
       <c r="E80">
         <v>7.5199604034423802E-3</v>
       </c>
-      <c r="G80" t="s">
+      <c r="H80" t="s">
         <v>178</v>
       </c>
-      <c r="H80">
+      <c r="I80">
         <v>2</v>
       </c>
-      <c r="I80">
+      <c r="J80">
         <v>6546</v>
       </c>
-      <c r="J80">
+      <c r="K80">
         <v>0.118816137313842</v>
       </c>
-      <c r="L80" t="s">
+      <c r="N80" t="s">
         <v>279</v>
       </c>
-      <c r="M80">
+      <c r="O80">
         <v>23</v>
       </c>
-      <c r="N80">
+      <c r="P80">
         <v>110103</v>
       </c>
-      <c r="O80">
+      <c r="Q80">
         <v>2.7813949584960902</v>
       </c>
-      <c r="Q80" t="s">
+      <c r="R80">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T80" t="s">
         <v>380</v>
       </c>
-      <c r="R80">
+      <c r="U80">
         <v>14</v>
       </c>
-      <c r="S80">
+      <c r="V80">
         <v>98702</v>
       </c>
-      <c r="T80">
+      <c r="W80">
         <v>3.1884772777557302</v>
       </c>
-    </row>
-    <row r="81" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="X80">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>78</v>
       </c>
@@ -10793,44 +11490,52 @@
       <c r="E81">
         <v>8.0215930938720703E-3</v>
       </c>
-      <c r="G81" t="s">
+      <c r="H81" t="s">
         <v>179</v>
       </c>
-      <c r="H81">
-        <v>1</v>
-      </c>
       <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="J81">
         <v>3106</v>
       </c>
-      <c r="J81">
+      <c r="K81">
         <v>5.4143905639648403E-2</v>
       </c>
-      <c r="L81" t="s">
+      <c r="N81" t="s">
         <v>280</v>
       </c>
-      <c r="M81">
+      <c r="O81">
         <v>8</v>
       </c>
-      <c r="N81">
+      <c r="P81">
         <v>39355</v>
       </c>
-      <c r="O81">
+      <c r="Q81">
         <v>0.98862838745117099</v>
       </c>
-      <c r="Q81" t="s">
+      <c r="R81">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T81" t="s">
         <v>381</v>
       </c>
-      <c r="R81">
+      <c r="U81">
         <v>11</v>
       </c>
-      <c r="S81">
+      <c r="V81">
         <v>80482</v>
       </c>
-      <c r="T81">
+      <c r="W81">
         <v>2.6640827655792201</v>
       </c>
-    </row>
-    <row r="82" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="X81">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>79</v>
       </c>
@@ -10843,44 +11548,52 @@
       <c r="E82">
         <v>1.55410766601562E-2</v>
       </c>
-      <c r="G82" t="s">
+      <c r="H82" t="s">
         <v>180</v>
       </c>
-      <c r="H82">
+      <c r="I82">
         <v>16</v>
       </c>
-      <c r="I82">
+      <c r="J82">
         <v>45586</v>
       </c>
-      <c r="J82">
+      <c r="K82">
         <v>0.79912447929382302</v>
       </c>
-      <c r="L82" t="s">
+      <c r="N82" t="s">
         <v>281</v>
       </c>
-      <c r="M82">
+      <c r="O82">
         <v>5</v>
       </c>
-      <c r="N82">
+      <c r="P82">
         <v>23322</v>
       </c>
-      <c r="O82">
+      <c r="Q82">
         <v>0.58355164527893</v>
       </c>
-      <c r="Q82" t="s">
+      <c r="R82">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T82" t="s">
         <v>382</v>
       </c>
-      <c r="R82">
+      <c r="U82">
         <v>8</v>
       </c>
-      <c r="S82">
+      <c r="V82">
         <v>56394</v>
       </c>
-      <c r="T82">
+      <c r="W82">
         <v>1.8499186038970901</v>
       </c>
-    </row>
-    <row r="83" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="X82">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>80</v>
       </c>
@@ -10893,44 +11606,52 @@
       <c r="E83">
         <v>8.5229873657226493E-3</v>
       </c>
-      <c r="G83" t="s">
+      <c r="H83" t="s">
         <v>181</v>
       </c>
-      <c r="H83">
-        <v>1</v>
-      </c>
       <c r="I83">
+        <v>1</v>
+      </c>
+      <c r="J83">
         <v>2430</v>
       </c>
-      <c r="J83">
+      <c r="K83">
         <v>4.21116352081298E-2</v>
       </c>
-      <c r="L83" t="s">
+      <c r="N83" t="s">
         <v>282</v>
       </c>
-      <c r="M83">
+      <c r="O83">
         <v>26</v>
       </c>
-      <c r="N83">
+      <c r="P83">
         <v>124800</v>
       </c>
-      <c r="O83">
+      <c r="Q83">
         <v>3.1819601058959899</v>
       </c>
-      <c r="Q83" t="s">
+      <c r="R83">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T83" t="s">
         <v>383</v>
       </c>
-      <c r="R83">
+      <c r="U83">
         <v>66</v>
       </c>
-      <c r="S83">
+      <c r="V83">
         <v>488597</v>
       </c>
-      <c r="T83">
+      <c r="W83">
         <v>15.956423044204699</v>
       </c>
-    </row>
-    <row r="84" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="X83">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>81</v>
       </c>
@@ -10943,44 +11664,52 @@
       <c r="E84">
         <v>7.0185661315917899E-3</v>
       </c>
-      <c r="G84" t="s">
+      <c r="H84" t="s">
         <v>182</v>
       </c>
-      <c r="H84">
+      <c r="I84">
         <v>2</v>
       </c>
-      <c r="I84">
+      <c r="J84">
         <v>5945</v>
       </c>
-      <c r="J84">
+      <c r="K84">
         <v>0.103274583816528</v>
       </c>
-      <c r="L84" t="s">
+      <c r="N84" t="s">
         <v>283</v>
       </c>
-      <c r="M84">
-        <v>1</v>
-      </c>
-      <c r="N84">
+      <c r="O84">
+        <v>1</v>
+      </c>
+      <c r="P84">
         <v>5496</v>
       </c>
-      <c r="O84">
+      <c r="Q84">
         <v>0.14037299156188901</v>
       </c>
-      <c r="Q84" t="s">
+      <c r="R84">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T84" t="s">
         <v>384</v>
       </c>
-      <c r="R84">
+      <c r="U84">
         <v>194</v>
       </c>
-      <c r="S84">
+      <c r="V84">
         <v>1414066</v>
       </c>
-      <c r="T84">
+      <c r="W84">
         <v>45.939137697219799</v>
       </c>
-    </row>
-    <row r="85" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="X84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>82</v>
       </c>
@@ -10993,44 +11722,52 @@
       <c r="E85">
         <v>4.5621395111083901E-2</v>
       </c>
-      <c r="G85" t="s">
+      <c r="H85" t="s">
         <v>183</v>
       </c>
-      <c r="H85">
+      <c r="I85">
         <v>9</v>
       </c>
-      <c r="I85">
+      <c r="J85">
         <v>26746</v>
       </c>
-      <c r="J85">
+      <c r="K85">
         <v>0.460223197937011</v>
       </c>
-      <c r="L85" t="s">
+      <c r="N85" t="s">
         <v>284</v>
       </c>
-      <c r="M85">
+      <c r="O85">
         <v>20</v>
       </c>
-      <c r="N85">
+      <c r="P85">
         <v>99460</v>
       </c>
-      <c r="O85">
+      <c r="Q85">
         <v>2.5031549930572501</v>
       </c>
-      <c r="Q85" t="s">
+      <c r="R85">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T85" t="s">
         <v>385</v>
       </c>
-      <c r="R85">
+      <c r="U85">
         <v>10</v>
       </c>
-      <c r="S85">
+      <c r="V85">
         <v>73326</v>
       </c>
-      <c r="T85">
+      <c r="W85">
         <v>2.3703017234802202</v>
       </c>
-    </row>
-    <row r="86" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="X85">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>83</v>
       </c>
@@ -11043,44 +11780,52 @@
       <c r="E86">
         <v>9.5252990722656198E-3</v>
       </c>
-      <c r="G86" t="s">
+      <c r="H86" t="s">
         <v>184</v>
       </c>
-      <c r="H86">
+      <c r="I86">
         <v>4</v>
       </c>
-      <c r="I86">
+      <c r="J86">
         <v>11484</v>
       </c>
-      <c r="J86">
+      <c r="K86">
         <v>0.200031757354736</v>
       </c>
-      <c r="L86" t="s">
+      <c r="N86" t="s">
         <v>285</v>
       </c>
-      <c r="M86">
+      <c r="O86">
         <v>30</v>
       </c>
-      <c r="N86">
+      <c r="P86">
         <v>150057</v>
       </c>
-      <c r="O86">
+      <c r="Q86">
         <v>3.7489695549011199</v>
       </c>
-      <c r="Q86" t="s">
+      <c r="R86">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T86" t="s">
         <v>386</v>
       </c>
-      <c r="R86">
+      <c r="U86">
         <v>10</v>
       </c>
-      <c r="S86">
+      <c r="V86">
         <v>74999</v>
       </c>
-      <c r="T86">
+      <c r="W86">
         <v>2.4114112854003902</v>
       </c>
-    </row>
-    <row r="87" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="X86">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>84</v>
       </c>
@@ -11093,44 +11838,52 @@
       <c r="E87">
         <v>8.5225105285644497E-3</v>
       </c>
-      <c r="G87" t="s">
+      <c r="H87" t="s">
         <v>185</v>
       </c>
-      <c r="H87">
-        <v>1</v>
-      </c>
       <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="J87">
         <v>3602</v>
       </c>
-      <c r="J87">
+      <c r="K87">
         <v>6.3168287277221596E-2</v>
       </c>
-      <c r="L87" t="s">
+      <c r="N87" t="s">
         <v>286</v>
       </c>
-      <c r="M87">
+      <c r="O87">
         <v>3</v>
       </c>
-      <c r="N87">
+      <c r="P87">
         <v>15334</v>
       </c>
-      <c r="O87">
+      <c r="Q87">
         <v>0.39003705978393499</v>
       </c>
-      <c r="Q87" t="s">
+      <c r="R87">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T87" t="s">
         <v>387</v>
       </c>
-      <c r="R87">
-        <v>1</v>
-      </c>
-      <c r="S87">
+      <c r="U87">
+        <v>1</v>
+      </c>
+      <c r="V87">
         <v>7755</v>
       </c>
-      <c r="T87">
+      <c r="W87">
         <v>0.252671718597412</v>
       </c>
-    </row>
-    <row r="88" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="X87">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>85</v>
       </c>
@@ -11143,44 +11896,52 @@
       <c r="E88">
         <v>9.5255374908447196E-3</v>
       </c>
-      <c r="G88" t="s">
+      <c r="H88" t="s">
         <v>186</v>
       </c>
-      <c r="H88">
+      <c r="I88">
         <v>5</v>
       </c>
-      <c r="I88">
+      <c r="J88">
         <v>15095</v>
       </c>
-      <c r="J88">
+      <c r="K88">
         <v>0.26169586181640597</v>
       </c>
-      <c r="L88" t="s">
+      <c r="N88" t="s">
         <v>287</v>
       </c>
-      <c r="M88">
+      <c r="O88">
         <v>9</v>
       </c>
-      <c r="N88">
+      <c r="P88">
         <v>45232</v>
       </c>
-      <c r="O88">
+      <c r="Q88">
         <v>1.1420361995696999</v>
       </c>
-      <c r="Q88" t="s">
+      <c r="R88">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T88" t="s">
         <v>388</v>
       </c>
-      <c r="R88">
+      <c r="U88">
         <v>6</v>
       </c>
-      <c r="S88">
+      <c r="V88">
         <v>45218</v>
       </c>
-      <c r="T88">
+      <c r="W88">
         <v>1.4608838558196999</v>
       </c>
-    </row>
-    <row r="89" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="X88">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>86</v>
       </c>
@@ -11193,44 +11954,52 @@
       <c r="E89">
         <v>6.8682432174682603E-2</v>
       </c>
-      <c r="G89" t="s">
+      <c r="H89" t="s">
         <v>187</v>
       </c>
-      <c r="H89">
+      <c r="I89">
         <v>27</v>
       </c>
-      <c r="I89">
+      <c r="J89">
         <v>78280</v>
       </c>
-      <c r="J89">
+      <c r="K89">
         <v>1.36512923240661</v>
       </c>
-      <c r="L89" t="s">
+      <c r="N89" t="s">
         <v>288</v>
       </c>
-      <c r="M89">
+      <c r="O89">
         <v>3</v>
       </c>
-      <c r="N89">
+      <c r="P89">
         <v>13419</v>
       </c>
-      <c r="O89">
+      <c r="Q89">
         <v>0.336895942687988</v>
       </c>
-      <c r="Q89" t="s">
+      <c r="R89">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T89" t="s">
         <v>389</v>
       </c>
-      <c r="R89">
+      <c r="U89">
         <v>2</v>
       </c>
-      <c r="S89">
+      <c r="V89">
         <v>15782</v>
       </c>
-      <c r="T89">
+      <c r="W89">
         <v>0.51837849617004395</v>
       </c>
-    </row>
-    <row r="90" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="X89">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
         <v>87</v>
       </c>
@@ -11243,44 +12012,52 @@
       <c r="E90">
         <v>2.1055936813354399E-2</v>
       </c>
-      <c r="G90" t="s">
+      <c r="H90" t="s">
         <v>188</v>
       </c>
-      <c r="H90">
+      <c r="I90">
         <v>6</v>
       </c>
-      <c r="I90">
+      <c r="J90">
         <v>17317</v>
       </c>
-      <c r="J90">
+      <c r="K90">
         <v>0.30230379104614202</v>
       </c>
-      <c r="L90" t="s">
+      <c r="N90" t="s">
         <v>289</v>
       </c>
-      <c r="M90">
+      <c r="O90">
         <v>3</v>
       </c>
-      <c r="N90">
+      <c r="P90">
         <v>13772</v>
       </c>
-      <c r="O90">
+      <c r="Q90">
         <v>0.33990359306335399</v>
       </c>
-      <c r="Q90" t="s">
+      <c r="R90">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T90" t="s">
         <v>390</v>
       </c>
-      <c r="R90">
+      <c r="U90">
         <v>21</v>
       </c>
-      <c r="S90">
+      <c r="V90">
         <v>144541</v>
       </c>
-      <c r="T90">
+      <c r="W90">
         <v>4.6744277477264404</v>
       </c>
-    </row>
-    <row r="91" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="X90">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
         <v>88</v>
       </c>
@@ -11293,44 +12070,52 @@
       <c r="E91">
         <v>8.0215930938720703E-3</v>
       </c>
-      <c r="G91" t="s">
+      <c r="H91" t="s">
         <v>189</v>
       </c>
-      <c r="H91">
-        <v>1</v>
-      </c>
       <c r="I91">
+        <v>1</v>
+      </c>
+      <c r="J91">
         <v>2974</v>
       </c>
-      <c r="J91">
+      <c r="K91">
         <v>5.1135778427124003E-2</v>
       </c>
-      <c r="L91" t="s">
+      <c r="N91" t="s">
         <v>290</v>
       </c>
-      <c r="M91">
+      <c r="O91">
         <v>3</v>
       </c>
-      <c r="N91">
+      <c r="P91">
         <v>14715</v>
       </c>
-      <c r="O91">
+      <c r="Q91">
         <v>0.37198901176452598</v>
       </c>
-      <c r="Q91" t="s">
+      <c r="R91">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T91" t="s">
         <v>391</v>
       </c>
-      <c r="R91">
+      <c r="U91">
         <v>69</v>
       </c>
-      <c r="S91">
+      <c r="V91">
         <v>477299</v>
       </c>
-      <c r="T91">
+      <c r="W91">
         <v>15.411975383758501</v>
       </c>
-    </row>
-    <row r="92" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="X91">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>89</v>
       </c>
@@ -11343,44 +12128,52 @@
       <c r="E92">
         <v>8.5225105285644497E-3</v>
       </c>
-      <c r="G92" t="s">
+      <c r="H92" t="s">
         <v>190</v>
       </c>
-      <c r="H92">
-        <v>1</v>
-      </c>
       <c r="I92">
+        <v>1</v>
+      </c>
+      <c r="J92">
         <v>2478</v>
       </c>
-      <c r="J92">
+      <c r="K92">
         <v>4.2613267898559501E-2</v>
       </c>
-      <c r="L92" t="s">
+      <c r="N92" t="s">
         <v>291</v>
       </c>
-      <c r="M92">
+      <c r="O92">
         <v>3</v>
       </c>
-      <c r="N92">
+      <c r="P92">
         <v>15933</v>
       </c>
-      <c r="O92">
+      <c r="Q92">
         <v>0.396053075790405</v>
       </c>
-      <c r="Q92" t="s">
+      <c r="R92">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T92" t="s">
         <v>392</v>
       </c>
-      <c r="R92">
+      <c r="U92">
         <v>39</v>
       </c>
-      <c r="S92">
+      <c r="V92">
         <v>278761</v>
       </c>
-      <c r="T92">
+      <c r="W92">
         <v>8.9858906269073398</v>
       </c>
-    </row>
-    <row r="93" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="X92">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
         <v>90</v>
       </c>
@@ -11393,44 +12186,52 @@
       <c r="E93">
         <v>2.6570558547973602E-2</v>
       </c>
-      <c r="G93" t="s">
+      <c r="H93" t="s">
         <v>191</v>
       </c>
-      <c r="H93">
-        <v>1</v>
-      </c>
       <c r="I93">
+        <v>1</v>
+      </c>
+      <c r="J93">
         <v>2627</v>
       </c>
-      <c r="J93">
+      <c r="K93">
         <v>4.6623945236205999E-2</v>
       </c>
-      <c r="L93" t="s">
+      <c r="N93" t="s">
         <v>292</v>
       </c>
-      <c r="M93">
+      <c r="O93">
         <v>8</v>
       </c>
-      <c r="N93">
+      <c r="P93">
         <v>38723</v>
       </c>
-      <c r="O93">
+      <c r="Q93">
         <v>0.98060727119445801</v>
       </c>
-      <c r="Q93" t="s">
+      <c r="R93">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T93" t="s">
         <v>393</v>
       </c>
-      <c r="R93">
+      <c r="U93">
         <v>7</v>
       </c>
-      <c r="S93">
+      <c r="V93">
         <v>51898</v>
       </c>
-      <c r="T93">
+      <c r="W93">
         <v>1.6784627437591499</v>
       </c>
-    </row>
-    <row r="94" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="X93">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
         <v>91</v>
       </c>
@@ -11443,44 +12244,52 @@
       <c r="E94">
         <v>1.7045259475708001E-2</v>
       </c>
-      <c r="G94" t="s">
+      <c r="H94" t="s">
         <v>192</v>
       </c>
-      <c r="H94">
+      <c r="I94">
         <v>7</v>
       </c>
-      <c r="I94">
+      <c r="J94">
         <v>19284</v>
       </c>
-      <c r="J94">
+      <c r="K94">
         <v>0.32937526702880798</v>
       </c>
-      <c r="L94" t="s">
+      <c r="N94" t="s">
         <v>293</v>
       </c>
-      <c r="M94">
+      <c r="O94">
         <v>71</v>
       </c>
-      <c r="N94">
+      <c r="P94">
         <v>344500</v>
       </c>
-      <c r="O94">
+      <c r="Q94">
         <v>8.7943816184997505</v>
       </c>
-      <c r="Q94" t="s">
+      <c r="R94">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T94" t="s">
         <v>394</v>
       </c>
-      <c r="R94">
+      <c r="U94">
         <v>139</v>
       </c>
-      <c r="S94">
+      <c r="V94">
         <v>997139</v>
       </c>
-      <c r="T94">
+      <c r="W94">
         <v>32.447266817092803</v>
       </c>
-    </row>
-    <row r="95" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="X94">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>92</v>
       </c>
@@ -11493,44 +12302,52 @@
       <c r="E95">
         <v>8.0215930938720703E-3</v>
       </c>
-      <c r="G95" t="s">
+      <c r="H95" t="s">
         <v>193</v>
       </c>
-      <c r="H95">
-        <v>1</v>
-      </c>
       <c r="I95">
+        <v>1</v>
+      </c>
+      <c r="J95">
         <v>2872</v>
       </c>
-      <c r="J95">
+      <c r="K95">
         <v>5.0634622573852497E-2</v>
       </c>
-      <c r="L95" t="s">
+      <c r="N95" t="s">
         <v>294</v>
       </c>
-      <c r="M95">
+      <c r="O95">
         <v>2</v>
       </c>
-      <c r="N95">
+      <c r="P95">
         <v>11154</v>
       </c>
-      <c r="O95">
+      <c r="Q95">
         <v>0.28425550460815402</v>
       </c>
-      <c r="Q95" t="s">
+      <c r="R95">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T95" t="s">
         <v>395</v>
       </c>
-      <c r="R95">
+      <c r="U95">
         <v>43</v>
       </c>
-      <c r="S95">
+      <c r="V95">
         <v>324526</v>
       </c>
-      <c r="T95">
+      <c r="W95">
         <v>10.5169613361358</v>
       </c>
-    </row>
-    <row r="96" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="X95">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
         <v>93</v>
       </c>
@@ -11543,44 +12360,52 @@
       <c r="E96">
         <v>9.52506065368652E-3</v>
       </c>
-      <c r="G96" t="s">
+      <c r="H96" t="s">
         <v>194</v>
       </c>
-      <c r="H96">
+      <c r="I96">
         <v>34</v>
       </c>
-      <c r="I96">
+      <c r="J96">
         <v>99453</v>
       </c>
-      <c r="J96">
+      <c r="K96">
         <v>1.7140572071075399</v>
       </c>
-      <c r="L96" t="s">
+      <c r="N96" t="s">
         <v>295</v>
       </c>
-      <c r="M96">
+      <c r="O96">
         <v>2</v>
       </c>
-      <c r="N96">
+      <c r="P96">
         <v>11626</v>
       </c>
-      <c r="O96">
+      <c r="Q96">
         <v>0.294282436370849</v>
       </c>
-      <c r="Q96" t="s">
+      <c r="R96">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T96" t="s">
         <v>396</v>
       </c>
-      <c r="R96">
+      <c r="U96">
         <v>2</v>
       </c>
-      <c r="S96">
+      <c r="V96">
         <v>16276</v>
       </c>
-      <c r="T96">
+      <c r="W96">
         <v>0.53241539001464799</v>
       </c>
-    </row>
-    <row r="97" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="X96">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>94</v>
       </c>
@@ -11593,44 +12418,52 @@
       <c r="E97">
         <v>7.5199604034423802E-3</v>
       </c>
-      <c r="G97" t="s">
+      <c r="H97" t="s">
         <v>195</v>
       </c>
-      <c r="H97">
-        <v>1</v>
-      </c>
       <c r="I97">
+        <v>1</v>
+      </c>
+      <c r="J97">
         <v>2413</v>
       </c>
-      <c r="J97">
+      <c r="K97">
         <v>4.11093235015869E-2</v>
       </c>
-      <c r="L97" t="s">
+      <c r="N97" t="s">
         <v>296</v>
       </c>
-      <c r="M97">
-        <v>1</v>
-      </c>
-      <c r="N97">
+      <c r="O97">
+        <v>1</v>
+      </c>
+      <c r="P97">
         <v>5788</v>
       </c>
-      <c r="O97">
+      <c r="Q97">
         <v>0.14889574050903301</v>
       </c>
-      <c r="Q97" t="s">
+      <c r="R97">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T97" t="s">
         <v>397</v>
       </c>
-      <c r="R97">
+      <c r="U97">
         <v>3</v>
       </c>
-      <c r="S97">
+      <c r="V97">
         <v>22147</v>
       </c>
-      <c r="T97">
+      <c r="W97">
         <v>0.72292208671569802</v>
       </c>
-    </row>
-    <row r="98" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="X97">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>95</v>
       </c>
@@ -11643,44 +12476,52 @@
       <c r="E98">
         <v>8.5227489471435495E-3</v>
       </c>
-      <c r="G98" t="s">
+      <c r="H98" t="s">
         <v>196</v>
       </c>
-      <c r="H98">
+      <c r="I98">
         <v>4</v>
       </c>
-      <c r="I98">
+      <c r="J98">
         <v>11532</v>
       </c>
-      <c r="J98">
+      <c r="K98">
         <v>0.19802618026733301</v>
       </c>
-      <c r="L98" t="s">
+      <c r="N98" t="s">
         <v>297</v>
       </c>
-      <c r="M98">
+      <c r="O98">
         <v>3</v>
       </c>
-      <c r="N98">
+      <c r="P98">
         <v>14508</v>
       </c>
-      <c r="O98">
+      <c r="Q98">
         <v>0.37098622322082497</v>
       </c>
-      <c r="Q98" t="s">
+      <c r="R98">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T98" t="s">
         <v>398</v>
       </c>
-      <c r="R98">
+      <c r="U98">
         <v>31</v>
       </c>
-      <c r="S98">
+      <c r="V98">
         <v>218863</v>
       </c>
-      <c r="T98">
+      <c r="W98">
         <v>7.0246763229370099</v>
       </c>
-    </row>
-    <row r="99" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="X98">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
         <v>96</v>
       </c>
@@ -11693,44 +12534,52 @@
       <c r="E99">
         <v>3.1584024429321199E-2</v>
       </c>
-      <c r="G99" t="s">
+      <c r="H99" t="s">
         <v>197</v>
       </c>
-      <c r="H99">
-        <v>1</v>
-      </c>
       <c r="I99">
+        <v>1</v>
+      </c>
+      <c r="J99">
         <v>2881</v>
       </c>
-      <c r="J99">
+      <c r="K99">
         <v>4.9631834030151298E-2</v>
       </c>
-      <c r="L99" t="s">
+      <c r="N99" t="s">
         <v>298</v>
       </c>
-      <c r="M99">
+      <c r="O99">
         <v>32</v>
       </c>
-      <c r="N99">
+      <c r="P99">
         <v>151844</v>
       </c>
-      <c r="O99">
+      <c r="Q99">
         <v>3.8422152996063201</v>
       </c>
-      <c r="Q99" t="s">
+      <c r="R99">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T99" t="s">
         <v>399</v>
       </c>
-      <c r="R99">
-        <v>1</v>
-      </c>
-      <c r="S99">
+      <c r="U99">
+        <v>1</v>
+      </c>
+      <c r="V99">
         <v>7867</v>
       </c>
-      <c r="T99">
+      <c r="W99">
         <v>0.25467705726623502</v>
       </c>
-    </row>
-    <row r="100" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="X99">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>97</v>
       </c>
@@ -11743,44 +12592,52 @@
       <c r="E100">
         <v>9.0239048004150304E-3</v>
       </c>
-      <c r="G100" t="s">
+      <c r="H100" t="s">
         <v>198</v>
       </c>
-      <c r="H100">
+      <c r="I100">
         <v>12</v>
       </c>
-      <c r="I100">
+      <c r="J100">
         <v>34459</v>
       </c>
-      <c r="J100">
+      <c r="K100">
         <v>0.59458088874816895</v>
       </c>
-      <c r="L100" t="s">
+      <c r="N100" t="s">
         <v>299</v>
       </c>
-      <c r="M100">
+      <c r="O100">
         <v>53</v>
       </c>
-      <c r="N100">
+      <c r="P100">
         <v>247883</v>
       </c>
-      <c r="O100">
+      <c r="Q100">
         <v>6.33785057067871</v>
       </c>
-      <c r="Q100" t="s">
+      <c r="R100">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T100" t="s">
         <v>400</v>
       </c>
-      <c r="R100">
+      <c r="U100">
         <v>12</v>
       </c>
-      <c r="S100">
+      <c r="V100">
         <v>83705</v>
       </c>
-      <c r="T100">
+      <c r="W100">
         <v>2.72424292564392</v>
       </c>
-    </row>
-    <row r="101" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="X100">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
         <v>98</v>
       </c>
@@ -11793,44 +12650,52 @@
       <c r="E101">
         <v>8.5227489471435495E-3</v>
       </c>
-      <c r="G101" t="s">
+      <c r="H101" t="s">
         <v>199</v>
       </c>
-      <c r="H101">
+      <c r="I101">
         <v>3</v>
       </c>
-      <c r="I101">
+      <c r="J101">
         <v>8411</v>
       </c>
-      <c r="J101">
+      <c r="K101">
         <v>0.146389245986938</v>
       </c>
-      <c r="L101" t="s">
+      <c r="N101" t="s">
         <v>300</v>
       </c>
-      <c r="M101">
+      <c r="O101">
         <v>3</v>
       </c>
-      <c r="N101">
+      <c r="P101">
         <v>12825</v>
       </c>
-      <c r="O101">
+      <c r="Q101">
         <v>0.32335996627807601</v>
       </c>
-      <c r="Q101" t="s">
+      <c r="R101">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T101" t="s">
         <v>401</v>
       </c>
-      <c r="R101">
+      <c r="U101">
         <v>37</v>
       </c>
-      <c r="S101">
+      <c r="V101">
         <v>261231</v>
       </c>
-      <c r="T101">
+      <c r="W101">
         <v>8.3953204154968208</v>
       </c>
-    </row>
-    <row r="102" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="X101">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>99</v>
       </c>
@@ -11843,101 +12708,166 @@
       <c r="E102">
         <v>7.5199604034423802E-3</v>
       </c>
-      <c r="G102" t="s">
+      <c r="H102" t="s">
         <v>200</v>
       </c>
-      <c r="H102">
-        <v>1</v>
-      </c>
       <c r="I102">
+        <v>1</v>
+      </c>
+      <c r="J102">
         <v>2922</v>
       </c>
-      <c r="J102">
+      <c r="K102">
         <v>5.0133228302001898E-2</v>
       </c>
-      <c r="L102" t="s">
+      <c r="N102" t="s">
         <v>301</v>
       </c>
-      <c r="M102">
-        <v>1</v>
-      </c>
-      <c r="N102">
+      <c r="O102">
+        <v>1</v>
+      </c>
+      <c r="P102">
         <v>5556</v>
       </c>
-      <c r="O102">
+      <c r="Q102">
         <v>0.14037299156188901</v>
       </c>
-      <c r="Q102" t="s">
+      <c r="R102">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T102" t="s">
         <v>402</v>
       </c>
-      <c r="R102">
+      <c r="U102">
         <v>3</v>
       </c>
-      <c r="S102">
+      <c r="V102">
         <v>24492</v>
       </c>
-      <c r="T102">
+      <c r="W102">
         <v>0.79110360145568803</v>
       </c>
-    </row>
-    <row r="104" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="X102">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>408</v>
+      </c>
       <c r="C104">
-        <f t="shared" ref="C104:T104" si="0">AVERAGE(C3:C102)</f>
+        <f t="shared" ref="C104:W104" si="4">AVERAGE(C3:C102)</f>
         <v>1.42</v>
       </c>
       <c r="D104">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1287.48</v>
       </c>
       <c r="E104">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.1425361633300773E-2</v>
       </c>
-      <c r="H104">
-        <f t="shared" si="0"/>
+      <c r="I104">
+        <f t="shared" si="4"/>
         <v>5.82</v>
       </c>
-      <c r="I104">
-        <f t="shared" si="0"/>
+      <c r="J104">
+        <f t="shared" si="4"/>
         <v>16764.78</v>
       </c>
-      <c r="J104">
-        <f t="shared" si="0"/>
+      <c r="K104">
+        <f t="shared" si="4"/>
         <v>0.29121428728103571</v>
       </c>
-      <c r="M104">
-        <f t="shared" si="0"/>
+      <c r="O104">
+        <f t="shared" si="4"/>
         <v>24.79</v>
       </c>
-      <c r="N104">
-        <f t="shared" si="0"/>
+      <c r="P104">
+        <f t="shared" si="4"/>
         <v>121421.11</v>
       </c>
-      <c r="O104">
-        <f t="shared" si="0"/>
+      <c r="Q104">
+        <f t="shared" si="4"/>
         <v>3.0745994305610616</v>
       </c>
-      <c r="R104">
-        <f t="shared" si="0"/>
+      <c r="U104">
+        <f t="shared" si="4"/>
         <v>116.7</v>
       </c>
-      <c r="S104">
-        <f t="shared" si="0"/>
+      <c r="V104">
+        <f t="shared" si="4"/>
         <v>832404.55</v>
       </c>
-      <c r="T104">
-        <f t="shared" si="0"/>
+      <c r="W104">
+        <f t="shared" si="4"/>
         <v>27.282130298614447</v>
+      </c>
+    </row>
+    <row r="105" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>409</v>
+      </c>
+      <c r="C105">
+        <f>MEDIAN(C3:C102)</f>
+        <v>1</v>
+      </c>
+      <c r="D105">
+        <f t="shared" ref="D105:W105" si="5">MEDIAN(D3:D102)</f>
+        <v>957.5</v>
+      </c>
+      <c r="E105">
+        <f t="shared" si="5"/>
+        <v>8.5227489471435495E-3</v>
+      </c>
+      <c r="I105">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="J105">
+        <f t="shared" si="5"/>
+        <v>8449.5</v>
+      </c>
+      <c r="K105">
+        <f t="shared" si="5"/>
+        <v>0.14689064025878851</v>
+      </c>
+      <c r="O105">
+        <f t="shared" si="5"/>
+        <v>7.5</v>
+      </c>
+      <c r="P105">
+        <f t="shared" si="5"/>
+        <v>37179.5</v>
+      </c>
+      <c r="Q105">
+        <f t="shared" si="5"/>
+        <v>0.93949770927429199</v>
+      </c>
+      <c r="U105">
+        <f t="shared" si="5"/>
+        <v>22</v>
+      </c>
+      <c r="V105">
+        <f t="shared" si="5"/>
+        <v>159099.5</v>
+      </c>
+      <c r="W105">
+        <f t="shared" si="5"/>
+        <v>5.2344164848327601</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B1:E1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="Q1:T1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="T1:W1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
